--- a/Periodic_2D/Freq_Swep/mode_data.xlsx
+++ b/Periodic_2D/Freq_Swep/mode_data.xlsx
@@ -485,28 +485,28 @@
         <v>22000000000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1232194354670288</v>
+        <v>0.1229988503284869</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8520007921135913</v>
+        <v>-0.8504755561631551</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0001631028172966905</v>
+        <v>-0.0001628108336724866</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2637562658741956</v>
+        <v>-0.2632840943192092</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4332592180349165</v>
+        <v>0.4324836054517986</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6778889640455629</v>
+        <v>-0.6766754198470805</v>
       </c>
       <c r="H2" t="n">
-        <v>0.013251047283379</v>
+        <v>0.01322732550531958</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9805818573443411</v>
+        <v>-0.9788264379656164</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +514,28 @@
         <v>22020000000</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1227631906555355</v>
+        <v>0.1225434222779583</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8523696862934999</v>
+        <v>-0.8508437899555736</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0001677292358603877</v>
+        <v>-0.0001674289701079936</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2601843268828815</v>
+        <v>-0.2597185497465502</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4321393339898021</v>
+        <v>0.4313657262022267</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.6778848905774145</v>
+        <v>-0.6766713536711855</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01315733820826428</v>
+        <v>0.01313378418644617</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.9807642759726234</v>
+        <v>-0.979008530031467</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +543,28 @@
         <v>22040000000</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1223087384672839</v>
+        <v>0.1220897836415478</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8527384223267921</v>
+        <v>-0.8512118658844878</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0001724019464550232</v>
+        <v>-0.0001720933156999469</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2566191853227197</v>
+        <v>-0.2561597904364151</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01306397925421838</v>
+        <v>0.01304059236185938</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.9809470137450517</v>
+        <v>-0.9791909406701402</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4310193669594846</v>
+        <v>0.4302477641160309</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6778829618917455</v>
+        <v>-0.6766694284382149</v>
       </c>
     </row>
     <row r="5">
@@ -572,28 +572,28 @@
         <v>22060000000</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1218560695690694</v>
+        <v>0.1216379251027685</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.8531069974330202</v>
+        <v>-0.8515797811744246</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0001771204002518175</v>
+        <v>-0.0001768033226113715</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2530608215259673</v>
+        <v>-0.2526077967562593</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4298993265384505</v>
+        <v>0.4291297287705104</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6778831924686212</v>
+        <v>-0.6766696586023241</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01297096911870233</v>
+        <v>0.01294774873135664</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.9811300758212385</v>
+        <v>-0.9793736750320062</v>
       </c>
     </row>
     <row r="6">
@@ -601,28 +601,28 @@
         <v>22080000000</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1214051746730648</v>
+        <v>0.1211878373904096</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8534754088557819</v>
+        <v>-0.8519475330739209</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0001818840658886324</v>
+        <v>-0.0001815584604229693</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2495092158135062</v>
+        <v>-0.2490625490622017</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4287792225040806</v>
+        <v>0.4280116299255008</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.677885596632629</v>
+        <v>-0.676672058462442</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01287830652380658</v>
+        <v>0.0128552520193118</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9813134673955043</v>
+        <v>-0.9795567383020908</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>22100000000</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1209560445360614</v>
+        <v>0.1207395112778099</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8538436538626376</v>
+        <v>-0.8523151188554187</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0001866924302701444</v>
+        <v>-0.0001863582169586015</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2459643484898917</v>
+        <v>-0.2455240276940491</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4276590648080337</v>
+        <v>0.426893477514907</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6778901885669927</v>
+        <v>-0.6766766421763966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01278599021532121</v>
+        <v>0.01276310097376412</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.9814971936951595</v>
+        <v>-0.9797401356983464</v>
       </c>
     </row>
     <row r="8">
@@ -659,28 +659,28 @@
         <v>22120000000</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1205086699936658</v>
+        <v>0.1202929376169868</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8542117296569964</v>
+        <v>-0.8526825357273472</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0001915450040626931</v>
+        <v>-0.0001912021037643537</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2424261998376403</v>
+        <v>-0.2419922129696213</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4265388340894848</v>
+        <v>0.4257752522125246</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.6778968999609737</v>
+        <v>-0.6766833415557367</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01269398789608026</v>
+        <v>0.01267126335536088</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.9816812593413667</v>
+        <v>-0.9799238718336601</v>
       </c>
     </row>
     <row r="9">
@@ -688,28 +688,28 @@
         <v>22140000000</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0001964412991521204</v>
+        <v>-0.0001960896335963988</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2388947501103147</v>
+        <v>-0.2384670851778273</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1200630417876238</v>
+        <v>0.1198481071662578</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8545796338129653</v>
+        <v>-0.8530497812681476</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4254186289513811</v>
+        <v>0.4246570524447958</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.6779059918405766</v>
+        <v>-0.6766924171592613</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01260239137903353</v>
+        <v>0.01257983081269128</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.9818656712165336</v>
+        <v>-0.9801079535781234</v>
       </c>
     </row>
     <row r="10">
@@ -717,28 +717,28 @@
         <v>22160000000</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0002013808766654976</v>
+        <v>-0.0002010203683713941</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2353699795278946</v>
+        <v>-0.2349486245740604</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1196191509105233</v>
+        <v>0.1194050109343424</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8549473634039425</v>
+        <v>-0.8534168525564632</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4242983719720371</v>
+        <v>0.4235388009286338</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.6779172304094518</v>
+        <v>-0.6767036356090568</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01251110682588267</v>
+        <v>0.01248870967544831</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9820504337327733</v>
+        <v>-0.9802923853359494</v>
       </c>
     </row>
     <row r="11">
@@ -746,28 +746,28 @@
         <v>22180000000</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0002063633010731879</v>
+        <v>-0.0002059938733353902</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2318518682677185</v>
+        <v>-0.2314368113711409</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1191769882597143</v>
+        <v>0.1189636398348752</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.8553149158727225</v>
+        <v>-0.8537837470396545</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4231781027189375</v>
+        <v>0.4224205371607047</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.6779307120611052</v>
+        <v>-0.676717093126106</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01242016360211529</v>
+        <v>0.01239792925654576</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.9822355518997701</v>
+        <v>-0.9804771721078499</v>
       </c>
     </row>
     <row r="12">
@@ -775,28 +775,28 @@
         <v>22200000000</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0002113881649249805</v>
+        <v>-0.0002110097417682569</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2283403964578104</v>
+        <v>-0.2279316257326698</v>
       </c>
       <c r="D12" t="n">
-        <v>0.118736544810332</v>
+        <v>0.118523984859153</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8556822885955709</v>
+        <v>-0.854150462098698</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4220578322154362</v>
+        <v>0.421302272144583</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.6779464500053571</v>
+        <v>-0.6767328028965697</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01232956075442854</v>
+        <v>0.01230748860439084</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.9824210314526419</v>
+        <v>-0.9806623196186831</v>
       </c>
     </row>
     <row r="13">
@@ -804,28 +804,28 @@
         <v>22220000000</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0002164550854968475</v>
+        <v>-0.0002160675916345221</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2248355441684139</v>
+        <v>-0.2244330477645666</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1182978115801604</v>
+        <v>0.1180860370410413</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.8560494789682837</v>
+        <v>-0.8545169951340453</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4209375714589901</v>
+        <v>0.4201840168580858</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.6779644574616334</v>
+        <v>-0.6767507781162541</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01223929716994036</v>
+        <v>0.0122173866080898</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.9826068778329756</v>
+        <v>-0.9808478333002864</v>
       </c>
     </row>
     <row r="14">
@@ -833,28 +833,28 @@
         <v>22240000000</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002215637054744606</v>
+        <v>-0.0002211670662557047</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2213372914031544</v>
+        <v>-0.2209410575062563</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1178607800375884</v>
+        <v>0.1176497878641985</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.8564164840170396</v>
+        <v>-0.8548833431771952</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4198173651528055</v>
+        <v>0.4190658159243728</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.6779846501068759</v>
+        <v>-0.6767709346130022</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01214922843083875</v>
+        <v>0.01212747910836994</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9827931448837373</v>
+        <v>-0.9810337668992437</v>
       </c>
     </row>
     <row r="15">
@@ -862,28 +862,28 @@
         <v>22260000000</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002267136985527189</v>
+        <v>-0.0002263078399124888</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2178456180882916</v>
+        <v>-0.2174556349199314</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1174254400580272</v>
+        <v>0.1172152272221602</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.8567833023433574</v>
+        <v>-0.8552495048321783</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4186971240150734</v>
+        <v>0.4179475802214494</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.6780073329357961</v>
+        <v>-0.676793576835527</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01205978348465559</v>
+        <v>0.01203819428486363</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.9829796930058045</v>
+        <v>-0.9812199810663328</v>
       </c>
     </row>
     <row r="16">
@@ -891,28 +891,28 @@
         <v>22280000000</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0002319047632790701</v>
+        <v>-0.0002314896116902584</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2143605040641691</v>
+        <v>-0.2139767598820283</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1169917840108894</v>
+        <v>0.1167823474979999</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.8571499302313251</v>
+        <v>-0.8556154763897296</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4175769601538875</v>
+        <v>0.4168294216567479</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.678032226547005</v>
+        <v>-0.6768184258826545</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01197053128139856</v>
+        <v>0.01194910185923631</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.9831666728717497</v>
+        <v>-0.9814066262044064</v>
       </c>
     </row>
     <row r="17">
@@ -920,28 +920,28 @@
         <v>22300000000</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0002371366329513233</v>
+        <v>-0.0002367121153659857</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2108819290714225</v>
+        <v>-0.2105044121694504</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1165598026718707</v>
+        <v>0.1163511394839319</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.8575163655392064</v>
+        <v>-0.8559812557119509</v>
       </c>
       <c r="F17" t="n">
-        <v>0.416456851689516</v>
+        <v>0.4157113183896805</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.6780594408461155</v>
+        <v>-0.6768455914632634</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01188161413175142</v>
+        <v>0.0118603438874161</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.9833540416820796</v>
+        <v>-0.9815936595905799</v>
       </c>
     </row>
     <row r="18">
@@ -949,28 +949,28 @@
         <v>22320000000</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0002424090738171985</v>
+        <v>-0.0002419751176066833</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2074098727395559</v>
+        <v>-0.2070385714481648</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1161294872661038</v>
+        <v>0.1159215944207903</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.8578826057529547</v>
+        <v>-0.8563468402892875</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4153368104395965</v>
+        <v>0.41459328221676</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6780889881935623</v>
+        <v>-0.6768750859155992</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01179303105770049</v>
+        <v>0.01177191939313358</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.9835418050787432</v>
+        <v>-0.9817810868567094</v>
       </c>
     </row>
     <row r="19">
@@ -978,28 +978,28 @@
         <v>22340000000</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0002477218919221402</v>
+        <v>-0.0002472784248031638</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2039443145684977</v>
+        <v>-0.2035792172548034</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1157008220799123</v>
+        <v>0.1154936966230268</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.8582486476368076</v>
+        <v>-0.8567122268917746</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4142167190727201</v>
+        <v>0.4134751960165637</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.6781206596395432</v>
+        <v>-0.6769067006639327</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01170586801323447</v>
+        <v>0.01168491238632822</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.9837298741437857</v>
+        <v>-0.9819688192440141</v>
       </c>
     </row>
     <row r="20">
@@ -1007,28 +1007,28 @@
         <v>22360000000</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0002530749152686731</v>
+        <v>-0.0002526218652650885</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2004852339375318</v>
+        <v>-0.20012632900556</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1152738238911523</v>
+        <v>0.1150674628384739</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.8586144898749328</v>
+        <v>-0.8570774142059366</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4130971623694814</v>
+        <v>0.4123576435229039</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6781551103572945</v>
+        <v>-0.6769410897086527</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01161595878949033</v>
+        <v>0.01159516411639928</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.9839189329401187</v>
+        <v>-0.9821575395908099</v>
       </c>
     </row>
     <row r="21">
@@ -1036,28 +1036,28 @@
         <v>22380000000</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0002584680451936483</v>
+        <v>-0.0002580053405120545</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1970326100321766</v>
+        <v>-0.1966798859232192</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1148484549428022</v>
+        <v>0.1146428553776915</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.8589801311966716</v>
+        <v>-0.8574424009633933</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4119774144334369</v>
+        <v>0.4112399001387514</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.6781917866255304</v>
+        <v>-0.6769777003196986</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01152840133948352</v>
+        <v>0.01150776341010974</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.9841077370756908</v>
+        <v>-0.9823460057327349</v>
       </c>
     </row>
     <row r="22">
@@ -1065,28 +1065,28 @@
         <v>22400000000</v>
       </c>
       <c r="B22" t="n">
-        <v>0.003814308865156513</v>
+        <v>0.003807480560092312</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5153192603259534</v>
+        <v>-0.5143967453841939</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005077927369013326</v>
+        <v>0.005068836957177855</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5236984670971278</v>
+        <v>-0.5227609518542994</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.006119011391696566</v>
+        <v>-0.006108057250801805</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5246810380780262</v>
+        <v>-0.5237417638544839</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.007829566274860802</v>
+        <v>-0.007815549930112672</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.5205890526217006</v>
+        <v>-0.5196571037948121</v>
       </c>
     </row>
     <row r="23">
@@ -1094,28 +1094,28 @@
         <v>22420000000</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0002693744080747325</v>
+        <v>-0.0002688921790244384</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1901466483544324</v>
+        <v>-0.1898062513658274</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1140025892499892</v>
+        <v>0.1137985039378902</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.8597107781840325</v>
+        <v>-0.8581717399601246</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4097383843414318</v>
+        <v>0.4090048783167241</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.6782718790466888</v>
+        <v>-0.6770576493609317</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01135672298852219</v>
+        <v>0.01133639239453552</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.9844880694898096</v>
+        <v>-0.9827256572828508</v>
       </c>
     </row>
     <row r="24">
@@ -1123,28 +1123,28 @@
         <v>22440000000</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.000274887527477699</v>
+        <v>-0.0002743954289476502</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1867132680491867</v>
+        <v>-0.18637901743406</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1135820931134991</v>
+        <v>0.1133787605657538</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.8600758112034924</v>
+        <v>-0.8585361195042701</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4086186557807684</v>
+        <v>0.407887154273276</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.678315935566896</v>
+        <v>-0.6771016270119523</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01126848576688383</v>
+        <v>0.01124831313352861</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.9846769881043168</v>
+        <v>-0.9829142376987717</v>
       </c>
     </row>
     <row r="25">
@@ -1152,28 +1152,28 @@
         <v>22460000000</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.0002804408223892729</v>
+        <v>-0.0002799387824520276</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1832862593321071</v>
+        <v>-0.1829581436841632</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1131632175824282</v>
+        <v>0.1129606348978572</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.8604406190703832</v>
+        <v>-0.8589002742989164</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4074996200932051</v>
+        <v>0.4067701218625585</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.6783623334287053</v>
+        <v>-0.6771479418131944</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01117954214350193</v>
+        <v>0.01115952873536405</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.9848696134469079</v>
+        <v>-0.9831065182070658</v>
       </c>
     </row>
     <row r="26">
@@ -1181,28 +1181,28 @@
         <v>22480000000</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0002860343754837849</v>
+        <v>-0.0002855223220735928</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1798656003192994</v>
+        <v>-0.1795436082714131</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1127458978852383</v>
+        <v>0.1125440622786134</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.8608052073809721</v>
+        <v>-0.8592642099302978</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4063803696335897</v>
+        <v>0.4056528750642701</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.6784107804514941</v>
+        <v>-0.6771963021069963</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01109628183296043</v>
+        <v>0.01107641747587786</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.985058805329514</v>
+        <v>-0.9832953714018851</v>
       </c>
     </row>
     <row r="27">
@@ -1210,28 +1210,28 @@
         <v>22500000000</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.0002916684021229346</v>
+        <v>-0.0002911462627784307</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1764512688148313</v>
+        <v>-0.1761353890396185</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1123302136609287</v>
+        <v>0.1121291222044634</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.8611696019556863</v>
+        <v>-0.8596279521726296</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4052614992942917</v>
+        <v>0.4045360077058263</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.678462245981542</v>
+        <v>-0.6772476755044189</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01100588342248559</v>
+        <v>0.01098618089495696</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.9852515571602545</v>
+        <v>-0.9834877781718878</v>
       </c>
     </row>
     <row r="28">
@@ -1239,28 +1239,28 @@
         <v>22520000000</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.000297343186332639</v>
+        <v>-0.0002968108880973554</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.173043242296666</v>
+        <v>-0.1727334635070538</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1119160576875191</v>
+        <v>0.1117157076453652</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.8615337352717746</v>
+        <v>-0.8599914336240423</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4041428052699665</v>
+        <v>0.4034193163467004</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6785153691256458</v>
+        <v>-0.6773007035484636</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01092537295441045</v>
+        <v>0.01090581455522022</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.9854424070881842</v>
+        <v>-0.9836782864438302</v>
       </c>
     </row>
     <row r="29">
@@ -1268,28 +1268,28 @@
         <v>22540000000</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.0003030590916940595</v>
+        <v>-0.0003025165609512433</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1696414978683182</v>
+        <v>-0.1693378088182261</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1115035362192681</v>
+        <v>0.1113039246653638</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.8618977165564596</v>
+        <v>-0.8603547633162054</v>
       </c>
       <c r="F29" t="n">
-        <v>0.403024149096517</v>
+        <v>0.4023026627707085</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.678571832625143</v>
+        <v>-0.6773570659680482</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0108332941869481</v>
+        <v>0.01081390062544926</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.985635789192006</v>
+        <v>-0.9838713223586107</v>
       </c>
     </row>
     <row r="30">
@@ -1297,28 +1297,28 @@
         <v>22560000000</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.0003088165774418094</v>
+        <v>-0.0003082637397562515</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1662460122127306</v>
+        <v>-0.1659484016978232</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1110925550522699</v>
+        <v>0.110893679229197</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.8622614475451161</v>
+        <v>-0.8607178431604263</v>
       </c>
       <c r="F30" t="n">
-        <v>0.401905765834875</v>
+        <v>0.4011862816179374</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.6786302922722535</v>
+        <v>-0.6774154209617977</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01074505830534571</v>
+        <v>0.01072582270208013</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.9858307821947991</v>
+        <v>-0.984065966288566</v>
       </c>
     </row>
     <row r="31">
@@ -1326,28 +1326,28 @@
         <v>22580000000</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0003146161842204244</v>
+        <v>-0.0003140529641871619</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1628567615750079</v>
+        <v>-0.1625652184334703</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1106830668657385</v>
+        <v>0.1104849241007907</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.8626248575270326</v>
+        <v>-0.8610806025725591</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4007880470287376</v>
+        <v>0.4000705637311894</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6786907034144183</v>
+        <v>-0.6774757239570511</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01067144330632487</v>
+        <v>0.01065233948726154</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.9860212682956092</v>
+        <v>-0.9842561113847033</v>
       </c>
     </row>
     <row r="32">
@@ -1355,28 +1355,28 @@
         <v>22600000000</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0003204585797699226</v>
+        <v>-0.0003198849007899247</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1594737216651665</v>
+        <v>-0.1591882347786692</v>
       </c>
       <c r="D32" t="n">
-        <v>0.110275162566675</v>
+        <v>0.110077750024408</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.8629879304204804</v>
+        <v>-0.8614430254996656</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3996709236592662</v>
+        <v>0.3989554402151974</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.6787546558624621</v>
+        <v>-0.677539561918609</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01060119989851247</v>
+        <v>0.01058222182788927</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.9862141725568212</v>
+        <v>-0.9844486703122971</v>
       </c>
     </row>
     <row r="33">
@@ -1384,28 +1384,28 @@
         <v>22620000000</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.0003263444920185631</v>
+        <v>-0.0003257602761858474</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1560968676595132</v>
+        <v>-0.1558174259541668</v>
       </c>
       <c r="D33" t="n">
-        <v>0.109868822806128</v>
+        <v>0.1096721376857283</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.8633511318469197</v>
+        <v>-0.8618055767296871</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3985527603342228</v>
+        <v>0.3978392786052781</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.678820009343014</v>
+        <v>-0.6776047984045981</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01050377131545546</v>
+        <v>0.01048496765966544</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.9864095534873148</v>
+        <v>-0.9846437014754902</v>
       </c>
     </row>
     <row r="34">
@@ -1413,28 +1413,28 @@
         <v>22640000000</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0003322748569225047</v>
+        <v>-0.0003316800246638327</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1527261740545262</v>
+        <v>-0.1524527665020962</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1094640011300463</v>
+        <v>0.1092680407138715</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.8637139198367084</v>
+        <v>-0.8621677152631664</v>
       </c>
       <c r="F34" t="n">
-        <v>0.397435524523077</v>
+        <v>0.396724042848894</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.6788884157312332</v>
+        <v>-0.6776730823329536</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01042041773224848</v>
+        <v>0.01040176329449329</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.9866044281267623</v>
+        <v>-0.9848382272539875</v>
       </c>
     </row>
     <row r="35">
@@ -1442,28 +1442,28 @@
         <v>22660000000</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.0003382506961845231</v>
+        <v>-0.0003376451660883126</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1493616146668403</v>
+        <v>-0.149094230285966</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1090606629576897</v>
+        <v>0.1088654245900067</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.864076686595273</v>
+        <v>-0.8625298326034431</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3963178083475836</v>
+        <v>0.3956083275880816</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.6789589797428194</v>
+        <v>-0.6777435200221852</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01031723411728779</v>
+        <v>0.01029876439692036</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.9867960683628513</v>
+        <v>-0.9850295244192949</v>
       </c>
     </row>
     <row r="36">
@@ -1471,28 +1471,28 @@
         <v>22680000000</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0003442732105746629</v>
+        <v>-0.0003436568990852687</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1460031625083271</v>
+        <v>-0.1457417903659595</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1086589495401781</v>
+        <v>0.1084644303123742</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.8644389494709533</v>
+        <v>-0.8628914469628659</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3952016341748018</v>
+        <v>0.3944941515695228</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.679032485304516</v>
+        <v>-0.6778168939956021</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01024165202019062</v>
+        <v>0.0102233176054847</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.9870006946178275</v>
+        <v>-0.9852337843561588</v>
       </c>
     </row>
     <row r="37">
@@ -1500,28 +1500,28 @@
         <v>22700000000</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.0003503433094351231</v>
+        <v>-0.0003497161313697852</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1426507895862536</v>
+        <v>-0.1423954187994573</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1082577843029062</v>
+        <v>0.1080639832336335</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.8648017909928361</v>
+        <v>-0.8632536389326125</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3940888034788866</v>
+        <v>0.3933833130423677</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.6791073172130176</v>
+        <v>-0.6778915919414072</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01008899071846846</v>
+        <v>0.0100709295951809</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.9871982567391643</v>
+        <v>-0.9854309928054671</v>
       </c>
     </row>
     <row r="38">
@@ -1529,28 +1529,28 @@
         <v>22720000000</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.0003564639115268579</v>
+        <v>-0.0003558257764713744</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1393044673857235</v>
+        <v>-0.1390550871226044</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1078598666081358</v>
+        <v>0.1076667778837095</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.8651628345727961</v>
+        <v>-0.8636140361790834</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3929696286048973</v>
+        <v>0.3922661416944104</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.6791870819464441</v>
+        <v>-0.6779712138814779</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01008110939455673</v>
+        <v>0.01006306238027124</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.9873921526229612</v>
+        <v>-0.9856245415804644</v>
       </c>
     </row>
     <row r="39">
@@ -1558,28 +1558,28 @@
         <v>22740000000</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.0003626354177501365</v>
+        <v>-0.0003619862345788555</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1359641655513994</v>
+        <v>-0.135720765034417</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3918616036527975</v>
+        <v>0.3911601003079419</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.6792708363024396</v>
+        <v>-0.6780548183019797</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1074593835643453</v>
+        <v>0.1072670117772019</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.8655239656147381</v>
+        <v>-0.8639745207309543</v>
       </c>
       <c r="H39" t="n">
-        <v>0.009897188407639623</v>
+        <v>0.009879470645278025</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.9874660258749561</v>
+        <v>-0.9856982825859355</v>
       </c>
     </row>
     <row r="40">
@@ -1587,28 +1587,28 @@
         <v>22760000000</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.0003688604113505062</v>
+        <v>-0.0003682000843109576</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1326298529636145</v>
+        <v>-0.1323924214709295</v>
       </c>
       <c r="D40" t="n">
-        <v>0.390742300201794</v>
+        <v>0.390042800613136</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.6793529827261888</v>
+        <v>-0.678136817668746</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1070651399914388</v>
+        <v>0.1068734739718045</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.8658869564471443</v>
+        <v>-0.8643368617439364</v>
       </c>
       <c r="H40" t="n">
-        <v>0.009837442183384608</v>
+        <v>0.009819831377598542</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.9877699889828684</v>
+        <v>-0.9860017015447565</v>
       </c>
     </row>
     <row r="41">
@@ -1616,28 +1616,28 @@
         <v>22780000000</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.0003751410380064286</v>
+        <v>-0.0003744694675076138</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1293014968432309</v>
+        <v>-0.1290700237116833</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3896212731291209</v>
+        <v>0.3889237803822493</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.6794409593560412</v>
+        <v>-0.6782246368044743</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1066741035726314</v>
+        <v>0.1064831375791109</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.8662447723094167</v>
+        <v>-0.8646940370509126</v>
       </c>
       <c r="H41" t="n">
-        <v>0.009999412589508108</v>
+        <v>0.009981511827317572</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.9879916255920205</v>
+        <v>-0.9862229413841749</v>
       </c>
     </row>
     <row r="42">
@@ -1645,28 +1645,28 @@
         <v>22800000000</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0003814800078104997</v>
+        <v>-0.0003807970894041531</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1259790629692608</v>
+        <v>-0.1257535375969608</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3885093180543053</v>
+        <v>0.3878138159086933</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.6795269077917077</v>
+        <v>-0.6783104313768543</v>
       </c>
       <c r="F42" t="n">
-        <v>0.106279570722669</v>
+        <v>0.1060893110145082</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.8666075377441727</v>
+        <v>-0.8650561530697459</v>
       </c>
       <c r="H42" t="n">
-        <v>0.009765083278682156</v>
+        <v>0.009747602008464017</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.9881817849889899</v>
+        <v>-0.9864127603613354</v>
       </c>
     </row>
     <row r="43">
@@ -1674,28 +1674,28 @@
         <v>22820000000</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.0003878802664647033</v>
+        <v>-0.0003871858904353704</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1226625151682856</v>
+        <v>-0.1224429270180911</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3873913752760117</v>
+        <v>0.3866978744507454</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.6796188226949272</v>
+        <v>-0.6784021817357196</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1058906838694109</v>
+        <v>0.1057011203392487</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.8669657717590966</v>
+        <v>-0.8654137457808058</v>
       </c>
       <c r="H43" t="n">
-        <v>0.009862320139741034</v>
+        <v>0.00984466479790151</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.9883814056678459</v>
+        <v>-0.9866120236829672</v>
       </c>
     </row>
     <row r="44">
@@ -1703,28 +1703,28 @@
         <v>22840000000</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0003943451725043742</v>
+        <v>-0.0003936392231202522</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1193518151975995</v>
+        <v>-0.119138153800832</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1054972032261692</v>
+        <v>0.1053083440977255</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.8673292029455523</v>
+        <v>-0.8657765263595165</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3862825463346414</v>
+        <v>0.3855910305142962</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.6797116263685093</v>
+        <v>-0.6784948192738857</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0003943334560210307</v>
+        <v>0.0003936275276112232</v>
       </c>
       <c r="I44" t="n">
-        <v>0.119351810600141</v>
+        <v>0.1191381492116047</v>
       </c>
     </row>
     <row r="45">
@@ -1732,28 +1732,28 @@
         <v>22860000000</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.0004008785604012165</v>
+        <v>-0.0004001609150711034</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.116046922442581</v>
+        <v>-0.1158391774032757</v>
       </c>
       <c r="D45" t="n">
-        <v>0.385164228612328</v>
+        <v>0.3844747147835312</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.6798087881187566</v>
+        <v>-0.6785918070869963</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1051133046960046</v>
+        <v>0.1049251328155594</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.8676847019862193</v>
+        <v>-0.8661313889924286</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0004008224192262292</v>
+        <v>0.000400104874398229</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1160468089093631</v>
+        <v>0.1158390640733034</v>
       </c>
     </row>
     <row r="46">
@@ -1761,28 +1761,28 @@
         <v>22880000000</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.0004074847461312123</v>
+        <v>-0.0004067552745283428</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1127477935475344</v>
+        <v>-0.1125459545473326</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3840574642237999</v>
+        <v>0.3833699317040208</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.679907736474665</v>
+        <v>-0.678690578307395</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1047204671132005</v>
+        <v>0.104532998483289</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.8680489416980072</v>
+        <v>-0.8664949766490644</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0004074949524627263</v>
+        <v>0.0004067654625867403</v>
       </c>
       <c r="I46" t="n">
-        <v>0.112747778741696</v>
+        <v>0.1125459397679968</v>
       </c>
     </row>
     <row r="47">
@@ -1790,28 +1790,28 @@
         <v>22900000000</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0004141687024560902</v>
+        <v>-0.0004134272653580826</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1094543820310232</v>
+        <v>-0.1092584388347831</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3829435010251038</v>
+        <v>0.3822579627014739</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.6800095404272161</v>
+        <v>-0.6787922000123916</v>
       </c>
       <c r="F47" t="n">
-        <v>0.104337360282342</v>
+        <v>0.1041505774831338</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.8684086503461851</v>
+        <v>-0.8668540413535245</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0004141629182475892</v>
+        <v>0.0004134214915056092</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1094543757682828</v>
+        <v>0.1092584325832542</v>
       </c>
     </row>
     <row r="48">
@@ -1819,28 +1819,28 @@
         <v>22920000000</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.000420936061048324</v>
+        <v>-0.0004201825091519186</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.1061666377981818</v>
+        <v>-0.1059765802604366</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3818317890035246</v>
+        <v>0.3811482408460651</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.6801139722168414</v>
+        <v>-0.6788964448501811</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1039529196070887</v>
+        <v>0.103766825026423</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.8687687643567484</v>
+        <v>-0.8672135106946901</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0004208766378792385</v>
+        <v>0.000420123192360475</v>
       </c>
       <c r="I48" t="n">
-        <v>0.106166823655747</v>
+        <v>0.1059767657852832</v>
       </c>
     </row>
     <row r="49">
@@ -1848,28 +1848,28 @@
         <v>22940000000</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.0004277930191685682</v>
+        <v>-0.000427027192073402</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.1028845066001075</v>
+        <v>-0.1027003246725052</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3807319319582104</v>
+        <v>0.3800503527443407</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.6802037857827262</v>
+        <v>-0.6789860976334864</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0004282589149930224</v>
+        <v>0.0004274922538620291</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1028856514421182</v>
+        <v>0.1027014674650404</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1036222482117464</v>
+        <v>0.1034367455928524</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.8691023773500369</v>
+        <v>-0.8675465264602077</v>
       </c>
     </row>
     <row r="50">
@@ -1877,28 +1877,28 @@
         <v>22960000000</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.000434747719368161</v>
+        <v>-0.0004339694420973015</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.09960792919559684</v>
+        <v>-0.09942961293584389</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3796080103638494</v>
+        <v>0.378928443173487</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.680328101756239</v>
+        <v>-0.6791101910588603</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1031937018142648</v>
+        <v>0.1030089663711509</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.8694803147320621</v>
+        <v>-0.8679237872657743</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0004346601588831525</v>
+        <v>0.0004338820383606838</v>
       </c>
       <c r="I50" t="n">
-        <v>0.09960793912829725</v>
+        <v>0.09942962285076239</v>
       </c>
     </row>
     <row r="51">
@@ -1906,28 +1906,28 @@
         <v>22980000000</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.0004418079967600985</v>
+        <v>-0.000441017080312067</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.09633684080914252</v>
+        <v>-0.09616438039089756</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3785202161916142</v>
+        <v>0.3778425963501217</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.6804464918059518</v>
+        <v>-0.6792283691689214</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0004419761508970715</v>
+        <v>0.0004411849334233068</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0963371162964933</v>
+        <v>0.09616465538507607</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1028426279706619</v>
+        <v>0.1026585210134063</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.8698622451558619</v>
+        <v>-0.8683050339648479</v>
       </c>
     </row>
     <row r="52">
@@ -1935,28 +1935,28 @@
         <v>23000000000</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.0004489835301288984</v>
+        <v>-0.0004481797681753352</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0930711702018111</v>
+        <v>-0.09290455592626819</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0004489617354208438</v>
+        <v>0.0004481580124860611</v>
       </c>
       <c r="E52" t="n">
-        <v>0.09307111532399867</v>
+        <v>0.09290450114669516</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3773789920055029</v>
+        <v>0.3767034151623102</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.680573480406929</v>
+        <v>-0.6793551304372388</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1023809485468751</v>
+        <v>0.1021976680795212</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.8701985084576627</v>
+        <v>-0.8686406952943432</v>
       </c>
     </row>
     <row r="53">
@@ -1964,28 +1964,28 @@
         <v>23020000000</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.000456286002379317</v>
+        <v>-0.0004554691676782424</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.08981083782220728</v>
+        <v>-0.08965006013296921</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3762803252015572</v>
+        <v>0.3756067151711884</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.6806738864817854</v>
+        <v>-0.6794553567670156</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1020567534256552</v>
+        <v>0.101874053326368</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.870552890464241</v>
+        <v>-0.868994442892856</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0004562665238793265</v>
+        <v>0.0004554497240453856</v>
       </c>
       <c r="I53" t="n">
-        <v>0.08981071103053825</v>
+        <v>0.0896499335682802</v>
       </c>
     </row>
     <row r="54">
@@ -1993,28 +1993,28 @@
         <v>23040000000</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0004637284419953535</v>
+        <v>-0.0004628982839735348</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.08655575522840785</v>
+        <v>-0.0864008047274081</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0004638302334569215</v>
+        <v>0.0004629998932113323</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08655565223210808</v>
+        <v>0.08640070191548958</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3751487541035173</v>
+        <v>0.3744771697906711</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.6808059419640236</v>
+        <v>-0.6795871758460056</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1016167991295479</v>
+        <v>0.1014348866282447</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.870901920039041</v>
+        <v>-0.8693428476414121</v>
       </c>
     </row>
     <row r="55">
@@ -2022,28 +2022,28 @@
         <v>23060000000</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0004713261297772333</v>
+        <v>-0.0004704823705181489</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.08330582275662379</v>
+        <v>-0.08315669022421013</v>
       </c>
       <c r="D55" t="n">
-        <v>0.374065253579824</v>
+        <v>0.3733956089294236</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6809155625853685</v>
+        <v>-0.6796966002265501</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0004713433141184264</v>
+        <v>0.0004704995240954684</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08330582162719084</v>
+        <v>0.08315668909679572</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1013120190017981</v>
+        <v>0.1011306521122074</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.8712645505528415</v>
+        <v>-0.8697048289808142</v>
       </c>
     </row>
     <row r="56">
@@ -2051,28 +2051,28 @@
         <v>23080000000</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0004790970635633</v>
+        <v>-0.0004782393929226298</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.08006092761945256</v>
+        <v>-0.07991760403787689</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3729566767015892</v>
+        <v>0.3722890166048788</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6810408267057529</v>
+        <v>-0.6798216401014395</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0004790459655650351</v>
+        <v>0.0004781883863973647</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08006089359491937</v>
+        <v>0.07991757007425648</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1009486187000643</v>
+        <v>0.1007679023629311</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.8716154319621939</v>
+        <v>-0.8700550822488048</v>
       </c>
     </row>
     <row r="57">
@@ -2080,28 +2080,28 @@
         <v>23100000000</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.0004870624277396338</v>
+        <v>-0.0004861904976528165</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.0768209408850543</v>
+        <v>-0.07668341746739168</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0004870700488113426</v>
+        <v>0.0004861981050819118</v>
       </c>
       <c r="E57" t="n">
-        <v>0.07682093074546816</v>
+        <v>0.07668340734595736</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3718512562303565</v>
+        <v>0.3711855750367772</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.6811673830205279</v>
+        <v>-0.6799479698574641</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1005847492774051</v>
+        <v>0.1004046843325326</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.871967884639122</v>
+        <v>-0.8704069039715194</v>
       </c>
     </row>
     <row r="58">
@@ -2109,28 +2109,28 @@
         <v>23120000000</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.0004952473910715235</v>
+        <v>-0.0004943608084137909</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.07358571420819612</v>
+        <v>-0.07345398243307766</v>
       </c>
       <c r="D58" t="n">
-        <v>0.000495198023262068</v>
+        <v>0.0004943115289831855</v>
       </c>
       <c r="E58" t="n">
-        <v>0.07358575604150455</v>
+        <v>0.07345402419149308</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3707083313602581</v>
+        <v>0.3700446962095132</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.6812912204718846</v>
+        <v>-0.6800715856173186</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1000519848771905</v>
+        <v>0.09987287367722662</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.8722742863546362</v>
+        <v>-0.8707127571723897</v>
       </c>
     </row>
     <row r="59">
@@ -2138,28 +2138,28 @@
         <v>23140000000</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.0005036818820683994</v>
+        <v>-0.0005027802001419025</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.07035507554631282</v>
+        <v>-0.07022912720035837</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0005036974431719884</v>
+        <v>0.0005027957333881656</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0703550891132399</v>
+        <v>0.07022914074299953</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3696033480117148</v>
+        <v>0.3689416909815689</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.6814183926138863</v>
+        <v>-0.6801985300981133</v>
       </c>
       <c r="H59" t="n">
-        <v>0.09966568858225763</v>
+        <v>0.09948726892272691</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.8726317035038558</v>
+        <v>-0.8710695344800725</v>
       </c>
     </row>
     <row r="60">
@@ -2167,28 +2167,28 @@
         <v>23160000000</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.0005124020645352192</v>
+        <v>-0.0005114847719018507</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.06712882312792415</v>
+        <v>-0.06700865035896346</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0005124019480412531</v>
+        <v>0.000511484655618403</v>
       </c>
       <c r="E60" t="n">
-        <v>0.06712882256528227</v>
+        <v>0.06700864979732975</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3685339474467784</v>
+        <v>0.3678742048376243</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.6815780180610796</v>
+        <v>-0.680357869786807</v>
       </c>
       <c r="H60" t="n">
-        <v>0.09946555254217002</v>
+        <v>0.0992874911624507</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.8730635795403991</v>
+        <v>-0.8715006373801856</v>
       </c>
     </row>
     <row r="61">
@@ -2196,28 +2196,28 @@
         <v>23180000000</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.0005214514810334002</v>
+        <v>-0.0005205179883045901</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.06390671851545794</v>
+        <v>-0.06379231389816686</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0005215036143196016</v>
+        <v>0.000520570028261388</v>
       </c>
       <c r="E61" t="n">
-        <v>0.06390665061775239</v>
+        <v>0.06379224612200959</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3674735437799269</v>
+        <v>0.3668156994856401</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.6817872236018145</v>
+        <v>-0.6805667008116904</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0995351849553259</v>
+        <v>0.09935699892095126</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.8735969881957431</v>
+        <v>-0.872033091137293</v>
       </c>
     </row>
     <row r="62">
@@ -2225,28 +2225,28 @@
         <v>23200000000</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.0005308846017485763</v>
+        <v>-0.0005299342220237917</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.060688476563327</v>
+        <v>-0.06057983318284318</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0005308389536493617</v>
+        <v>0.0005298886556391327</v>
       </c>
       <c r="E62" t="n">
-        <v>0.060688530708126</v>
+        <v>0.06057988723071001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3663037821942279</v>
+        <v>0.3656480319853514</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.6819246771209041</v>
+        <v>-0.6807039082640485</v>
       </c>
       <c r="H62" t="n">
-        <v>0.09888113792919874</v>
+        <v>0.09870412275763059</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.8739714075071111</v>
+        <v>-0.8724068401701761</v>
       </c>
     </row>
     <row r="63">
@@ -2254,28 +2254,28 @@
         <v>23220000000</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.0005407669252458521</v>
+        <v>-0.0005397988543654599</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.05747375376039792</v>
+        <v>-0.05737086531680337</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0005407668207012855</v>
+        <v>0.0005397987500076995</v>
       </c>
       <c r="E63" t="n">
-        <v>0.05747375360195752</v>
+        <v>0.05737086515864777</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3652204116869989</v>
+        <v>0.3645666009078372</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.6819959210156438</v>
+        <v>-0.6807750246192837</v>
       </c>
       <c r="H63" t="n">
-        <v>0.09829136065662671</v>
+        <v>0.0981154012933505</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.8741257086445683</v>
+        <v>-0.8725608650806123</v>
       </c>
     </row>
     <row r="64">
@@ -2283,28 +2283,28 @@
         <v>23240000000</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.0005511818944663507</v>
+        <v>-0.0005501951789046482</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.0542621288363172</v>
+        <v>-0.05416498978384945</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0005511818944639226</v>
+        <v>0.0005501951789003077</v>
       </c>
       <c r="E64" t="n">
-        <v>0.05426212883631603</v>
+        <v>0.05416498978384764</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3641212402848318</v>
+        <v>0.3634693972218396</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.6821430127439535</v>
+        <v>-0.6809218530267231</v>
       </c>
       <c r="H64" t="n">
-        <v>0.09799226603746934</v>
+        <v>0.09781684210780811</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.8744771594302688</v>
+        <v>-0.872911686705665</v>
       </c>
     </row>
     <row r="65">
@@ -2312,28 +2312,28 @@
         <v>23260000000</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.0005622348610833101</v>
+        <v>-0.0005612283587048672</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.05105308095741264</v>
+        <v>-0.05096168668269312</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0005622395448569483</v>
+        <v>0.0005612330340949928</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0510530838515138</v>
+        <v>0.05096168957161221</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3630365424466144</v>
+        <v>0.3623866411894931</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.6822424936695661</v>
+        <v>-0.6810211558634234</v>
       </c>
       <c r="H65" t="n">
-        <v>0.09737205567170515</v>
+        <v>0.09719774203109156</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.8746242004973431</v>
+        <v>-0.873058464542553</v>
       </c>
     </row>
     <row r="66">
@@ -2341,28 +2341,28 @@
         <v>23280000000</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.0005740618515458325</v>
+        <v>-0.000573034176708792</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.04784595649744969</v>
+        <v>-0.04776030355720558</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0005740023020143289</v>
+        <v>0.0005729747337804101</v>
       </c>
       <c r="E66" t="n">
-        <v>0.04784591926928474</v>
+        <v>0.0477602663956922</v>
       </c>
       <c r="F66" t="n">
-        <v>0.361855136626463</v>
+        <v>0.3612073503000262</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6826714339667191</v>
+        <v>-0.6814493282796525</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09864165473993954</v>
+        <v>0.09846506828670637</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.8762838795807989</v>
+        <v>-0.8747151724994291</v>
       </c>
     </row>
     <row r="67">
@@ -2370,28 +2370,28 @@
         <v>23300000000</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.0005868398404117546</v>
+        <v>-0.0005857892906567534</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.0446399169780779</v>
+        <v>-0.04456000343007718</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0005868255515183411</v>
+        <v>0.0005857750273451312</v>
       </c>
       <c r="E67" t="n">
-        <v>0.04463990531557312</v>
+        <v>0.04455999178844534</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3607580876128599</v>
+        <v>0.3601122652031601</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.682429887390847</v>
+        <v>-0.6812082141159636</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0951693549237962</v>
+        <v>0.09499898451703798</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.8747121629100969</v>
+        <v>-0.8731462694866432</v>
       </c>
     </row>
     <row r="68">
@@ -2399,28 +2399,28 @@
         <v>23320000000</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.0006008064980879091</v>
+        <v>-0.0005997309454842385</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.0414338789967246</v>
+        <v>-0.04135970483820445</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0006008140246606522</v>
+        <v>0.0005997384585832261</v>
       </c>
       <c r="E68" t="n">
-        <v>0.04143386031677101</v>
+        <v>0.0413596861916934</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3595766176865454</v>
+        <v>0.3589329103222801</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6828281375807025</v>
+        <v>-0.681605751365756</v>
       </c>
       <c r="H68" t="n">
-        <v>0.09737889721238167</v>
+        <v>0.09720457132417251</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.8766157535430141</v>
+        <v>-0.8750464523470618</v>
       </c>
     </row>
     <row r="69">
@@ -2428,28 +2428,28 @@
         <v>23340000000</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.0006162866368444933</v>
+        <v>-0.0006151833719851144</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.03822639969613627</v>
+        <v>-0.03815796750732661</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0006162832313951363</v>
+        <v>0.0006151799726331355</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0382263992599194</v>
+        <v>0.03815796707189185</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3583955601377553</v>
+        <v>0.3577539670807297</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6830798736735517</v>
+        <v>-0.6818570368053467</v>
       </c>
       <c r="H69" t="n">
-        <v>0.09805597240207298</v>
+        <v>0.09788043442646743</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.8779425494310792</v>
+        <v>-0.876370873029835</v>
       </c>
     </row>
     <row r="70">
@@ -2470,28 +2470,28 @@
         <v>23380000000</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.0006538144993105902</v>
+        <v>-0.0006526440527739334</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.03179850901338802</v>
+        <v>-0.03174158391476401</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0006538141003524098</v>
+        <v>0.0006526436545264905</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03179850906734242</v>
+        <v>0.031741583968622</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3565868966694145</v>
+        <v>0.3559485414480505</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6831401846638824</v>
+        <v>-0.6819172398280561</v>
       </c>
       <c r="H71" t="n">
-        <v>0.09487857777561079</v>
+        <v>0.09470872791269692</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.8753756304567165</v>
+        <v>-0.8738085493060049</v>
       </c>
     </row>
     <row r="72">
@@ -2512,28 +2512,28 @@
         <v>23420000000</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.0007064414662631227</v>
+        <v>-0.0007051768079037803</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.02532829218777648</v>
+        <v>-0.02528294995081456</v>
       </c>
       <c r="D73" t="n">
-        <v>0.000706426831239046</v>
+        <v>0.0007051621990787501</v>
       </c>
       <c r="E73" t="n">
-        <v>0.02532830005489766</v>
+        <v>0.0252829578038527</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3538664466654481</v>
+        <v>0.3532329615430224</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6834150926078568</v>
+        <v>-0.6821916556369452</v>
       </c>
       <c r="H73" t="n">
-        <v>0.09544218612583832</v>
+        <v>0.09527132730174712</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.8796940248026864</v>
+        <v>-0.8781192129428618</v>
       </c>
     </row>
     <row r="74">
@@ -2541,28 +2541,28 @@
         <v>23440000000</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.0007432566289977594</v>
+        <v>-0.0007419260648218375</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.0220597501210645</v>
+        <v>-0.02202025916723343</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0007432618767133492</v>
+        <v>0.0007419313031426825</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02205974787200566</v>
+        <v>0.02202025692220439</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3525069617417598</v>
+        <v>0.3518759103439182</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6835274913408244</v>
+        <v>-0.682303853155795</v>
       </c>
       <c r="H74" t="n">
-        <v>0.09577912923975976</v>
+        <v>0.09560766722636305</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.884008556442933</v>
+        <v>-0.8824260207889045</v>
       </c>
     </row>
     <row r="75">
@@ -2570,28 +2570,28 @@
         <v>23460000000</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.0007929204446124693</v>
+        <v>-0.0007915009732009839</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.01874989182336242</v>
+        <v>-0.01871632611621949</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0007929203213844663</v>
+        <v>0.000791500850190995</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01874989221137472</v>
+        <v>0.01871632650353741</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3522007773174458</v>
+        <v>0.3515702740452645</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6839791840562618</v>
+        <v>-0.6827547372593218</v>
       </c>
       <c r="H75" t="n">
-        <v>0.09335941242743069</v>
+        <v>0.09319228214601596</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.8771984967974504</v>
+        <v>-0.875628152385354</v>
       </c>
     </row>
     <row r="76">
@@ -2599,28 +2599,28 @@
         <v>23480000000</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.0008657793858821578</v>
+        <v>-0.000864229483749668</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.01536928467052716</v>
+        <v>-0.01534177086334591</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0008657790863989464</v>
+        <v>0.0008642291848002776</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0153692874908204</v>
+        <v>0.01534177367858893</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3515383577260782</v>
+        <v>0.3509090403051092</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6860720020460735</v>
+        <v>-0.6848438087253697</v>
       </c>
       <c r="H76" t="n">
-        <v>0.09560008594624017</v>
+        <v>0.09542894445282241</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.8700539650890303</v>
+        <v>-0.8684964106845517</v>
       </c>
     </row>
     <row r="77">
@@ -2628,28 +2628,28 @@
         <v>23500000000</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.0009880443081012858</v>
+        <v>-0.000986275529579311</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.0118556774107071</v>
+        <v>-0.01183445359780864</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0009880439148136663</v>
+        <v>0.0009862751369975962</v>
       </c>
       <c r="E77" t="n">
-        <v>0.011855677256461</v>
+        <v>0.01183445344383452</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3500392375576529</v>
+        <v>0.3494126038336831</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6844173268695434</v>
+        <v>-0.6831920957175213</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0930060102768563</v>
+        <v>0.09283951264939061</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.8770705368291889</v>
+        <v>-0.8755004214886699</v>
       </c>
     </row>
     <row r="78">
@@ -2657,28 +2657,28 @@
         <v>23520000000</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.001253973157310451</v>
+        <v>-0.001251728317916254</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.008046311263099107</v>
+        <v>-0.008031906906528276</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001253972582326898</v>
+        <v>0.001251727743963173</v>
       </c>
       <c r="E78" t="n">
-        <v>0.008046309335670854</v>
+        <v>0.008031904982550067</v>
       </c>
       <c r="F78" t="n">
-        <v>0.3483492679378356</v>
+        <v>0.3477256595659975</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6840062926200059</v>
+        <v>-0.6827817972938568</v>
       </c>
       <c r="H78" t="n">
-        <v>0.09787768994900732</v>
+        <v>0.0977024711313166</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.8853975502309449</v>
+        <v>-0.8838125280261037</v>
       </c>
     </row>
     <row r="79">
@@ -2686,28 +2686,28 @@
         <v>23540000000</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.002430858147838608</v>
+        <v>-0.002426506470858824</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.003469683733071829</v>
+        <v>-0.003463472369870208</v>
       </c>
       <c r="D79" t="n">
-        <v>0.002430858095521989</v>
+        <v>0.002426506418634118</v>
       </c>
       <c r="E79" t="n">
-        <v>0.00346968374077748</v>
+        <v>0.003463472377562179</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3477058614242385</v>
+        <v>0.347083404866771</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6849471173608084</v>
+        <v>-0.6837209377877406</v>
       </c>
       <c r="H79" t="n">
-        <v>0.09278490379313303</v>
+        <v>0.092618801986383</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.8785422319603612</v>
+        <v>-0.8769694820186305</v>
       </c>
     </row>
     <row r="80">
@@ -2715,28 +2715,28 @@
         <v>23560000000</v>
       </c>
       <c r="B80" t="n">
-        <v>0.005746764108919055</v>
+        <v>0.005736476358838011</v>
       </c>
       <c r="C80" t="n">
-        <v>0.001174134116579367</v>
+        <v>0.001172032203550405</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.005746758316642169</v>
+        <v>-0.005736470576930239</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.001174129545237783</v>
+        <v>-0.001172027640395743</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3458178286897877</v>
+        <v>0.3451987520533688</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6862475356769123</v>
+        <v>-0.6850190281191778</v>
       </c>
       <c r="H80" t="n">
-        <v>0.09417619720330421</v>
+        <v>0.09400760472901497</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.8730282089290078</v>
+        <v>-0.8714653300885949</v>
       </c>
     </row>
     <row r="81">
@@ -2744,28 +2744,28 @@
         <v>23580000000</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.007124644339661215</v>
+        <v>-0.007111889934054663</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.0007059208086614777</v>
+        <v>-0.0007046570823723545</v>
       </c>
       <c r="D81" t="n">
-        <v>0.007124646248833993</v>
+        <v>0.00711189183980732</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0007059234910822423</v>
+        <v>0.000704659759994259</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3460418656726995</v>
+        <v>0.3454223879694514</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6845395003803659</v>
+        <v>-0.6833140505156062</v>
       </c>
       <c r="H81" t="n">
-        <v>0.09265826547272048</v>
+        <v>0.09249239037148177</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.8836945595508723</v>
+        <v>-0.8821125860082518</v>
       </c>
     </row>
     <row r="82">
@@ -2773,28 +2773,28 @@
         <v>23600000000</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.007073582964576504</v>
+        <v>-0.007060919968092409</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.0004637562341177374</v>
+        <v>-0.0004629260263445582</v>
       </c>
       <c r="D82" t="n">
-        <v>0.007073583345888029</v>
+        <v>0.007060920348720758</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0004637558447272219</v>
+        <v>0.0004629256376488264</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3436711328737281</v>
+        <v>0.3430558992121637</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.6864127934345562</v>
+        <v>-0.6851839900354668</v>
       </c>
       <c r="H82" t="n">
-        <v>0.09296917568414532</v>
+        <v>0.09280274399729727</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.870747646422562</v>
+        <v>-0.8691888502026794</v>
       </c>
     </row>
     <row r="83">
@@ -2802,28 +2802,28 @@
         <v>23620000000</v>
       </c>
       <c r="B83" t="n">
-        <v>0.005522521013508662</v>
+        <v>0.005512634699241971</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0002717166954563392</v>
+        <v>0.0002712302732885102</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.005522507403254815</v>
+        <v>-0.005512621113353547</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.0002717155174637718</v>
+        <v>-0.0002712290974012074</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3419451744071142</v>
+        <v>0.3413330305242764</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.6873159060377074</v>
+        <v>-0.6860854859032384</v>
       </c>
       <c r="H83" t="n">
-        <v>0.09715349341638099</v>
+        <v>0.09697957104192417</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.8642528870783492</v>
+        <v>-0.86270571765566</v>
       </c>
     </row>
     <row r="84">
@@ -2831,28 +2831,28 @@
         <v>23640000000</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001107274409540316</v>
+        <v>0.000110529218752108</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.002799321299403229</v>
+        <v>-0.002794310006537504</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.0001107332272596222</v>
+        <v>-0.0001105349946984181</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002799321744341224</v>
+        <v>0.00279431045067915</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3398062670447621</v>
+        <v>0.3391979521940409</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.6867577814158889</v>
+        <v>-0.6855283604257402</v>
       </c>
       <c r="H84" t="n">
-        <v>0.09836320341559228</v>
+        <v>0.09818711544072825</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.8708530735936499</v>
+        <v>-0.8692940886400001</v>
       </c>
     </row>
     <row r="85">
@@ -2860,28 +2860,28 @@
         <v>23660000000</v>
       </c>
       <c r="B85" t="n">
-        <v>0.000267013961116713</v>
+        <v>0.000266535957696951</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.008055661728934842</v>
+        <v>-0.008041240633336456</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.0002670139640450933</v>
+        <v>-0.0002665359606163264</v>
       </c>
       <c r="E85" t="n">
-        <v>0.008055661736837716</v>
+        <v>0.008041240641224381</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3412110679404732</v>
+        <v>0.3406002382413486</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.6857998428599956</v>
+        <v>-0.6845721367535967</v>
       </c>
       <c r="H85" t="n">
-        <v>0.09187961628345816</v>
+        <v>0.09171513510554209</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.8819974486764591</v>
+        <v>-0.880418513270108</v>
       </c>
     </row>
     <row r="86">
@@ -2889,28 +2889,28 @@
         <v>23680000000</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0003392637393610668</v>
+        <v>0.0003386563957326382</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.01185691380385286</v>
+        <v>-0.0118356877775818</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.0003391420615266139</v>
+        <v>-0.0003385349357277417</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01185719035507513</v>
+        <v>0.01183596383372628</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3491211380609827</v>
+        <v>0.3484961479016556</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.6989343107536832</v>
+        <v>-0.697683091567479</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05853434333608276</v>
+        <v>0.05842955624476161</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.8865774524884117</v>
+        <v>-0.8849903180445258</v>
       </c>
     </row>
     <row r="87">
@@ -2918,28 +2918,28 @@
         <v>23700000000</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0003865766061321076</v>
+        <v>0.0003858845638906154</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.01532367146250645</v>
+        <v>-0.01529623931124145</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.0003865786144591404</v>
+        <v>-0.0003858865686234353</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01532367048960936</v>
+        <v>0.01529623834008374</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3330828815527909</v>
+        <v>0.3324866027815502</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.6884342718155531</v>
+        <v>-0.6872018496035106</v>
       </c>
       <c r="H87" t="n">
-        <v>0.09822832565330858</v>
+        <v>0.09805247913402582</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.8517821158548554</v>
+        <v>-0.8502572713747274</v>
       </c>
     </row>
     <row r="88">
@@ -2947,28 +2947,28 @@
         <v>23720000000</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0004213933594141634</v>
+        <v>0.0004206389888673796</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.01864099380205698</v>
+        <v>-0.01860762304212138</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.0004213933604690839</v>
+        <v>-0.00042063898992521</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01864099380365528</v>
+        <v>0.01860762304371881</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3380039138338012</v>
+        <v>0.3373988255222203</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.6863564473968931</v>
+        <v>-0.6851277448673962</v>
       </c>
       <c r="H88" t="n">
-        <v>0.08430795484571171</v>
+        <v>0.08415702831509143</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.8867495892514879</v>
+        <v>-0.8851621466514138</v>
       </c>
     </row>
     <row r="89">
@@ -2976,28 +2976,28 @@
         <v>23740000000</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0004487535621720335</v>
+        <v>0.000447950211901545</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.02187469544361743</v>
+        <v>-0.02183553577122636</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.0004487539443551697</v>
+        <v>-0.0004479505934018642</v>
       </c>
       <c r="E89" t="n">
-        <v>0.02187469555888969</v>
+        <v>0.02183553588629166</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3312461331956832</v>
+        <v>0.3306531425371595</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.6884957412581311</v>
+        <v>-0.6872632090046318</v>
       </c>
       <c r="H89" t="n">
-        <v>0.09342914412576267</v>
+        <v>0.09326188901195268</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.851860210154657</v>
+        <v>-0.8503352258714038</v>
       </c>
     </row>
     <row r="90">
@@ -3005,28 +3005,28 @@
         <v>23760000000</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0004712413885413717</v>
+        <v>0.0004703977809816527</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.02505521647936604</v>
+        <v>-0.02501036309745344</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.0004712413737131807</v>
+        <v>-0.0004703977661792331</v>
       </c>
       <c r="E90" t="n">
-        <v>0.02505521652034127</v>
+        <v>0.02501036313835175</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3380124594489045</v>
+        <v>0.3374073558391365</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.6870997585119656</v>
+        <v>-0.6858697253207909</v>
       </c>
       <c r="H90" t="n">
-        <v>0.07777895082604139</v>
+        <v>0.07763971239696986</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.8863751227775146</v>
+        <v>-0.8847883505405729</v>
       </c>
     </row>
     <row r="91">
@@ -3034,28 +3034,28 @@
         <v>23780000000</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0004903430866514117</v>
+        <v>0.0004894652835885654</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.02819882096285239</v>
+        <v>-0.02814833995873677</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.0004903413844882546</v>
+        <v>-0.0004894635844721083</v>
       </c>
       <c r="E91" t="n">
-        <v>0.02819881515975373</v>
+        <v>0.02814833416602805</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3337681001954209</v>
+        <v>0.3331705947585436</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6920734479233551</v>
+        <v>-0.6908345109260183</v>
       </c>
       <c r="H91" t="n">
-        <v>0.07816429387559096</v>
+        <v>0.07802436561241376</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.8813837036890729</v>
+        <v>-0.8798058669975274</v>
       </c>
     </row>
     <row r="92">
@@ -3063,28 +3063,28 @@
         <v>23800000000</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0005069854455164562</v>
+        <v>0.0005060778496142599</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.03131506840006201</v>
+        <v>-0.03125900874782157</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.0005069855281886021</v>
+        <v>-0.0005060779321425754</v>
       </c>
       <c r="E92" t="n">
-        <v>0.03131506831577167</v>
+        <v>0.03125900866368077</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3406722689524083</v>
+        <v>0.340062403801233</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.6881884823661435</v>
+        <v>-0.6869565001618523</v>
       </c>
       <c r="H92" t="n">
-        <v>0.05156844226350364</v>
+        <v>0.05147612539863524</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.88847817282097</v>
+        <v>-0.8868876357428687</v>
       </c>
     </row>
     <row r="93">
@@ -3092,28 +3092,28 @@
         <v>23820000000</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0005217783601074951</v>
+        <v>0.0005208442822060093</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.03440997937402404</v>
+        <v>-0.03434837926980111</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.0005217784301692262</v>
+        <v>-0.0005208443521415468</v>
       </c>
       <c r="E93" t="n">
-        <v>0.03440997930951378</v>
+        <v>0.03434837920540295</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3329110705394995</v>
+        <v>0.3323150993410974</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.6879700915432306</v>
+        <v>-0.6867385002980645</v>
       </c>
       <c r="H93" t="n">
-        <v>0.09305458811868259</v>
+        <v>0.09288800352811911</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.8902557273348675</v>
+        <v>-0.8886620081118214</v>
       </c>
     </row>
     <row r="94">
@@ -3121,28 +3121,28 @@
         <v>23840000000</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0005351425173404777</v>
+        <v>0.0005341845151705324</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.0374875463170945</v>
+        <v>-0.03742043680984282</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.0005351425064996857</v>
+        <v>-0.0005341845043520169</v>
       </c>
       <c r="E94" t="n">
-        <v>0.03748754632609298</v>
+        <v>0.03742043681882638</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3317796499764157</v>
+        <v>0.3311857042260835</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6879001154786175</v>
+        <v>-0.6866686495032966</v>
       </c>
       <c r="H94" t="n">
-        <v>0.09061660392928191</v>
+        <v>0.09045438377258584</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.8905599778572819</v>
+        <v>-0.8889657139706386</v>
       </c>
     </row>
     <row r="95">
@@ -3150,28 +3150,28 @@
         <v>23860000000</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0005473776022388318</v>
+        <v>0.0005463976970496804</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.04055052918848086</v>
+        <v>-0.0404779363863397</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.0005473775707518684</v>
+        <v>-0.0005463976656192741</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0405505292020024</v>
+        <v>0.0404779363998333</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3303988656538795</v>
+        <v>0.3298073917578872</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.6886500735455702</v>
+        <v>-0.6874172650093001</v>
       </c>
       <c r="H95" t="n">
-        <v>0.09089570507590221</v>
+        <v>0.09073298527751862</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.8906641720848041</v>
+        <v>-0.8890697216716582</v>
       </c>
     </row>
     <row r="96">
@@ -3179,28 +3179,28 @@
         <v>23880000000</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0005587033259535209</v>
+        <v>0.0005577031456661041</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.04360090091264782</v>
+        <v>-0.0435228473918568</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.0005587032629305954</v>
+        <v>-0.0005577030827526034</v>
       </c>
       <c r="E96" t="n">
-        <v>0.04360090091762713</v>
+        <v>0.04352284739682633</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3293038852428267</v>
+        <v>0.3287143715603512</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.6858250725966275</v>
+        <v>-0.6845973213244166</v>
       </c>
       <c r="H96" t="n">
-        <v>0.09311755879446904</v>
+        <v>0.09295086147495724</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.8762099041445169</v>
+        <v>-0.8746413294925333</v>
       </c>
     </row>
     <row r="97">
@@ -3208,28 +3208,28 @@
         <v>23900000000</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0005692845943458796</v>
+        <v>0.0005682654716661219</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.04664011185735635</v>
+        <v>-0.0465566175977282</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.0005692846268364155</v>
+        <v>-0.0005682655040987573</v>
       </c>
       <c r="E97" t="n">
-        <v>0.04664011185850924</v>
+        <v>0.04655661759888279</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3283328047154818</v>
+        <v>0.327745029443344</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.6889463120261217</v>
+        <v>-0.6877129731692008</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1134943314488122</v>
+        <v>0.1132911560103825</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.881980059914125</v>
+        <v>-0.8804011556368182</v>
       </c>
     </row>
     <row r="98">
@@ -3237,28 +3237,28 @@
         <v>23920000000</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0005792476737698174</v>
+        <v>0.0005782107153736507</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.04966925391147922</v>
+        <v>-0.04958033693816605</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.0005792476737632303</v>
+        <v>-0.0005782107153673302</v>
       </c>
       <c r="E98" t="n">
-        <v>0.04966925391148339</v>
+        <v>0.04958033693816644</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3272200074243864</v>
+        <v>0.3266342242612034</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.6887356444712093</v>
+        <v>-0.6875026827474556</v>
       </c>
       <c r="H98" t="n">
-        <v>0.08660922517818047</v>
+        <v>0.08645417895628189</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.8864899574892712</v>
+        <v>-0.8849029796773139</v>
       </c>
     </row>
     <row r="99">
@@ -3266,28 +3266,28 @@
         <v>23940000000</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0005886909193767887</v>
+        <v>0.0005876370558540693</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.05268916615028414</v>
+        <v>-0.05259484298632049</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.0005886913803113048</v>
+        <v>-0.0005876375159682288</v>
       </c>
       <c r="E99" t="n">
-        <v>0.05268916567487877</v>
+        <v>0.05259484251177107</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3287818475303631</v>
+        <v>0.3281932683901383</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.682920635420893</v>
+        <v>-0.6816980836180307</v>
       </c>
       <c r="H99" t="n">
-        <v>0.09976404137344345</v>
+        <v>0.09958544564459405</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.871846921056967</v>
+        <v>-0.8702861569360831</v>
       </c>
     </row>
     <row r="100">
@@ -3295,28 +3295,28 @@
         <v>23960000000</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0005976920988035236</v>
+        <v>0.0005966221215394454</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.05570050507032834</v>
+        <v>-0.05560079106351372</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.0005976922604662606</v>
+        <v>-0.0005966222829083292</v>
       </c>
       <c r="E100" t="n">
-        <v>0.05570050583351627</v>
+        <v>0.05560079182533487</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3097643227688085</v>
+        <v>0.3092097884472473</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.7085623681905913</v>
+        <v>-0.707293913035297</v>
       </c>
       <c r="H100" t="n">
-        <v>0.02901039988762424</v>
+        <v>0.028958466010009</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.859232053157436</v>
+        <v>-0.8576938719381479</v>
       </c>
     </row>
     <row r="101">
@@ -3324,28 +3324,28 @@
         <v>23980000000</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0006063135131892369</v>
+        <v>0.000605228102029631</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.05870379256583153</v>
+        <v>-0.05859870212967577</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.0006063130730172105</v>
+        <v>-0.0006052276626459035</v>
       </c>
       <c r="E101" t="n">
-        <v>0.05870379281949055</v>
+        <v>0.05859870238287702</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3084198545999786</v>
+        <v>0.3078677271202775</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.7082480891498715</v>
+        <v>-0.7069801966110965</v>
       </c>
       <c r="H101" t="n">
-        <v>0.01452000413531335</v>
+        <v>0.01449401069422823</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.8698958363727146</v>
+        <v>-0.8683385650473772</v>
       </c>
     </row>
     <row r="102">
@@ -3353,28 +3353,28 @@
         <v>24000000000</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0006146056576606522</v>
+        <v>0.0006135054020584422</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.06169944948237959</v>
+        <v>-0.06158899627700378</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.0006146056938626388</v>
+        <v>-0.0006135054381946454</v>
       </c>
       <c r="E102" t="n">
-        <v>0.06169944959620172</v>
+        <v>0.06158899639062217</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3251195646854125</v>
+        <v>0.3245375416956819</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.6870084900205312</v>
+        <v>-0.6857786202164988</v>
       </c>
       <c r="H102" t="n">
-        <v>0.08555427722648269</v>
+        <v>0.08540111955267182</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.8733661377775052</v>
+        <v>-0.8718026539830024</v>
       </c>
     </row>
     <row r="103">
@@ -3382,28 +3382,28 @@
         <v>24020000000</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0006226098834987741</v>
+        <v>0.0006214952988821253</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.06468781958420765</v>
+        <v>-0.06457201665432741</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.0006226098246644502</v>
+        <v>-0.0006214952401513341</v>
       </c>
       <c r="E103" t="n">
-        <v>0.06468781957294906</v>
+        <v>0.06457201664309072</v>
       </c>
       <c r="F103" t="n">
-        <v>0.325426090149107</v>
+        <v>0.3248435184233098</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.6822260656775759</v>
+        <v>-0.6810047572804063</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1097084000213016</v>
+        <v>0.1095120020870917</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.862582643722246</v>
+        <v>-0.8610384643380299</v>
       </c>
     </row>
     <row r="104">
@@ -3411,28 +3411,28 @@
         <v>24040000000</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0006303603698002521</v>
+        <v>0.0006292319104073551</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.06766918698750998</v>
+        <v>-0.06754804686923072</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.0006303595041345101</v>
+        <v>-0.0006292310462865445</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0676691863607876</v>
+        <v>0.06754804624363119</v>
       </c>
       <c r="F104" t="n">
-        <v>0.2883831333522828</v>
+        <v>0.2878668752377348</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.6930182539912725</v>
+        <v>-0.6917776256198076</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5499513961381662</v>
+        <v>0.5489668833910938</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.5169201664819251</v>
+        <v>-0.5159947856271421</v>
       </c>
     </row>
     <row r="105">
@@ -3440,28 +3440,28 @@
         <v>24060000000</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0006378856043399659</v>
+        <v>0.0006367436734092525</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.07064378905512243</v>
+        <v>-0.07051732385962001</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.00063788558855802</v>
+        <v>-0.0006367436576550024</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07064378817889178</v>
+        <v>0.07051732298495618</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2894406520636617</v>
+        <v>0.2889225007988623</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.6903072153742587</v>
+        <v>-0.6890714402534537</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5483993844113157</v>
+        <v>0.547417650046509</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.4988079432226133</v>
+        <v>-0.4979149865321725</v>
       </c>
     </row>
     <row r="106">
@@ -3469,28 +3469,28 @@
         <v>24080000000</v>
       </c>
       <c r="B106" t="n">
-        <v>-5.310636561686406e-05</v>
+        <v>-5.301129571687231e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.1765158732077241</v>
+        <v>-0.1761998777788647</v>
       </c>
       <c r="D106" t="n">
-        <v>0.003297779654658274</v>
+        <v>0.003291876030835536</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.1769624813646571</v>
+        <v>-0.1766456864261266</v>
       </c>
       <c r="F106" t="n">
-        <v>0.002947105601690317</v>
+        <v>0.002941829748282273</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.1908680878299863</v>
+        <v>-0.1905263993338701</v>
       </c>
       <c r="H106" t="n">
-        <v>0.005889175055344312</v>
+        <v>0.005878632363990341</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.1894449840284701</v>
+        <v>-0.1891058431462124</v>
       </c>
     </row>
     <row r="107">
@@ -3498,28 +3498,28 @@
         <v>24100000000</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0006523523199668285</v>
+        <v>0.0006511844909961024</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.0765734686262146</v>
+        <v>-0.07643638822878022</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.0006523513189432884</v>
+        <v>-0.0006511834917595829</v>
       </c>
       <c r="E107" t="n">
-        <v>0.07657346869665502</v>
+        <v>0.07643638829909691</v>
       </c>
       <c r="F107" t="n">
-        <v>0.3502632834635482</v>
+        <v>0.3496362486567273</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.6985713457203889</v>
+        <v>-0.6973207763073743</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1437123088299352</v>
+        <v>0.1434550377310745</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.8662434069908702</v>
+        <v>-0.8646926741764173</v>
       </c>
     </row>
     <row r="108">
@@ -3527,28 +3527,28 @@
         <v>24120000000</v>
       </c>
       <c r="B108" t="n">
-        <v>0.000659331242862044</v>
+        <v>0.0006581509203500518</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.07952886324564287</v>
+        <v>-0.0793864921557989</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.0006593311761187944</v>
+        <v>-0.0006581508537271998</v>
       </c>
       <c r="E108" t="n">
-        <v>0.07952886321359308</v>
+        <v>0.07938649212381033</v>
       </c>
       <c r="F108" t="n">
-        <v>0.3162531624776937</v>
+        <v>0.3156870119560549</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.6943314287936962</v>
+        <v>-0.6930884496010001</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0708550377786505</v>
+        <v>0.07072819440966524</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.8688009859839549</v>
+        <v>-0.8672456746392384</v>
       </c>
     </row>
     <row r="109">
@@ -3556,28 +3556,28 @@
         <v>24140000000</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0006661610085062886</v>
+        <v>0.0006649684594805958</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.0824781368481199</v>
+        <v>-0.08233048602359887</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.0006661610085217894</v>
+        <v>-0.0006649684594882161</v>
       </c>
       <c r="E109" t="n">
-        <v>0.08247813684827671</v>
+        <v>0.08233048602375986</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3178637135277011</v>
+        <v>0.3172946798275706</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.6876179748784149</v>
+        <v>-0.6863870139859716</v>
       </c>
       <c r="H109" t="n">
-        <v>0.09032587494677152</v>
+        <v>0.09016417524759444</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.8744173275195603</v>
+        <v>-0.8728519619049655</v>
       </c>
     </row>
     <row r="110">
@@ -3585,28 +3585,28 @@
         <v>24160000000</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0006728542857274212</v>
+        <v>0.0006716497545136947</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.08542140019851557</v>
+        <v>-0.08526848039876322</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.0006728543076110699</v>
+        <v>-0.000671649776359884</v>
       </c>
       <c r="E110" t="n">
-        <v>0.08542140014989445</v>
+        <v>0.08526848035022959</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3286639939289218</v>
+        <v>0.3280756257680905</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.6963958463518302</v>
+        <v>-0.6951491714772385</v>
       </c>
       <c r="H110" t="n">
-        <v>0.07994903054810937</v>
+        <v>0.07980590728257465</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.8743331177988659</v>
+        <v>-0.8727679029351395</v>
       </c>
     </row>
     <row r="111">
@@ -3614,28 +3614,28 @@
         <v>24180000000</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0006794220234516864</v>
+        <v>0.0006782057348022558</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.08835875067118362</v>
+        <v>-0.08820057248131929</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.0006794220239919966</v>
+        <v>-0.0006782057353404224</v>
       </c>
       <c r="E111" t="n">
-        <v>0.08835875065266061</v>
+        <v>0.08820057246283038</v>
       </c>
       <c r="F111" t="n">
-        <v>0.321971359125118</v>
+        <v>0.3213949719943576</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.6996636026455787</v>
+        <v>-0.6984110778946108</v>
       </c>
       <c r="H111" t="n">
-        <v>0.07863726748730179</v>
+        <v>0.07849649251546378</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.8582238407439055</v>
+        <v>-0.8566874644076394</v>
       </c>
     </row>
     <row r="112">
@@ -3643,28 +3643,28 @@
         <v>24200000000</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0006858737254878586</v>
+        <v>0.0006846458871151745</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.09129027445987574</v>
+        <v>-0.09112684831072432</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.0006858737612123878</v>
+        <v>-0.0006846459227764622</v>
       </c>
       <c r="E112" t="n">
-        <v>0.09129027446467111</v>
+        <v>0.09112684831550874</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3246896617978925</v>
+        <v>0.3241084084123407</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.6975665491105043</v>
+        <v>-0.6963177784657109</v>
       </c>
       <c r="H112" t="n">
-        <v>0.08445897843298973</v>
+        <v>0.08430778154271787</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.8556653171685091</v>
+        <v>-0.8541335210534492</v>
       </c>
     </row>
     <row r="113">
@@ -3672,28 +3672,28 @@
         <v>24220000000</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0006922176741174283</v>
+        <v>0.000690978478924545</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.09421604836254303</v>
+        <v>-0.09404738454743865</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.0006922176754325924</v>
+        <v>-0.0006909784802409236</v>
       </c>
       <c r="E113" t="n">
-        <v>0.09421604836061878</v>
+        <v>0.09404738454551868</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3132889408054027</v>
+        <v>0.3127280967782107</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.6921642222567076</v>
+        <v>-0.6909251227568115</v>
       </c>
       <c r="H113" t="n">
-        <v>0.07707800228446064</v>
+        <v>0.07694001868021763</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.8653360441744747</v>
+        <v>-0.8637869357041772</v>
       </c>
     </row>
     <row r="114">
@@ -3701,28 +3701,28 @@
         <v>24240000000</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0006984611135553964</v>
+        <v>0.0006972107414781164</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.09713614123310366</v>
+        <v>-0.09696224992212846</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.0006984607048162204</v>
+        <v>-0.0006972103334700278</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0971361413830291</v>
+        <v>0.09696225007177769</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2954023921584345</v>
+        <v>0.2948735682976923</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.6809338616991094</v>
+        <v>-0.6797148665815752</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.01094158988260173</v>
+        <v>-0.01092200245194995</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.8643989678386296</v>
+        <v>-0.8628515369049642</v>
       </c>
     </row>
     <row r="115">
@@ -3730,28 +3730,28 @@
         <v>24260000000</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0007046104012289618</v>
+        <v>0.0007033490208116643</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.1000506151710527</v>
+        <v>-0.09987150642311407</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.0007046104566853379</v>
+        <v>-0.0007033490761680118</v>
       </c>
       <c r="E115" t="n">
-        <v>0.100050615275156</v>
+        <v>0.09987150652703458</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3128247855849305</v>
+        <v>0.3122647724797755</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.6987022835024884</v>
+        <v>-0.6974514796870599</v>
       </c>
       <c r="H115" t="n">
-        <v>0.07324088922906989</v>
+        <v>0.07310977475318527</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.8295453550163308</v>
+        <v>-0.8280603183712082</v>
       </c>
     </row>
     <row r="116">
@@ -3759,28 +3759,28 @@
         <v>24280000000</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0007106711334067084</v>
+        <v>0.0007093989031770594</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.1029595265021365</v>
+        <v>-0.1027752102753061</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.0007106711335114502</v>
+        <v>-0.0007093989032849823</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1029595265026583</v>
+        <v>0.1027752102758276</v>
       </c>
       <c r="F116" t="n">
-        <v>0.3152978197292245</v>
+        <v>0.3147333794444307</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.6951359636821987</v>
+        <v>-0.6938915442262131</v>
       </c>
       <c r="H116" t="n">
-        <v>0.07781140061402252</v>
+        <v>0.07767210409406217</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.8310514996338455</v>
+        <v>-0.8295637667167152</v>
       </c>
     </row>
     <row r="117">
@@ -3788,28 +3788,28 @@
         <v>24300000000</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0007166482501543663</v>
+        <v>0.0007153653198065673</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.1058629265921982</v>
+        <v>-0.1056734127525914</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.0007166477857915615</v>
+        <v>-0.0007153648562687266</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1058629266955317</v>
+        <v>0.1056734128557462</v>
       </c>
       <c r="F117" t="n">
-        <v>0.3052648433275132</v>
+        <v>0.3047183638900091</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.6727660727220308</v>
+        <v>-0.6715616994282061</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.01838999087917472</v>
+        <v>-0.01835706946045617</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.88504031359027</v>
+        <v>-0.883455930903332</v>
       </c>
     </row>
     <row r="118">
@@ -3817,28 +3817,28 @@
         <v>24320000000</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0007225461233054619</v>
+        <v>0.0007212526346870688</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.1087608625259733</v>
+        <v>-0.1085661608554335</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.0007225461339517076</v>
+        <v>-0.0007212526453239567</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1087608625271213</v>
+        <v>0.1085661608565805</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3065321934283047</v>
+        <v>0.3059834452042907</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.7110971973173728</v>
+        <v>-0.7098242043582119</v>
       </c>
       <c r="H118" t="n">
-        <v>0.05834597391125757</v>
+        <v>0.05824152403536321</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.8344452355640949</v>
+        <v>-0.8329514272446279</v>
       </c>
     </row>
     <row r="119">
@@ -3846,28 +3846,28 @@
         <v>24340000000</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0007283686307867203</v>
+        <v>0.0007270647188300065</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.1116533776767007</v>
+        <v>-0.1114534978794093</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.000728368621288096</v>
+        <v>-0.0007270647093476227</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1116533776928881</v>
+        <v>0.1114534978955596</v>
       </c>
       <c r="F119" t="n">
-        <v>0.2973170934840682</v>
+        <v>0.2967848419604373</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.68754439109804</v>
+        <v>-0.6863135619337271</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.001496934945882857</v>
+        <v>-0.00149425516040451</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.8798920019284602</v>
+        <v>-0.8783168356534173</v>
       </c>
     </row>
     <row r="120">
@@ -3875,28 +3875,28 @@
         <v>24360000000</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0007341192196142496</v>
+        <v>0.0007328050130670633</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.1145405121863006</v>
+        <v>-0.1143354638945731</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.0007341192282583885</v>
+        <v>-0.0007328050216876306</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1145405121755003</v>
+        <v>0.114335463883799</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5068408219643664</v>
+        <v>0.5059334849637608</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.539136437168922</v>
+        <v>-0.5381712851597164</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3024995421904456</v>
+        <v>0.3019580131434783</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.7151059697858821</v>
+        <v>-0.7138258003968869</v>
       </c>
     </row>
     <row r="121">
@@ -3904,28 +3904,28 @@
         <v>24380000000</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0007389844938546675</v>
+        <v>0.0007376615775738213</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.1174224654513374</v>
+        <v>-0.1172122579405506</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.0007715494817033497</v>
+        <v>-0.0007701682681925358</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1176577994412293</v>
+        <v>0.1174471706399175</v>
       </c>
       <c r="F121" t="n">
-        <v>0.3039863890550401</v>
+        <v>0.3034421982827578</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.6906927175470772</v>
+        <v>-0.6894562523075437</v>
       </c>
       <c r="H121" t="n">
-        <v>0.6668615296282285</v>
+        <v>0.665667726537286</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.5516046669509572</v>
+        <v>-0.5506171945492061</v>
       </c>
     </row>
     <row r="122">
@@ -3933,28 +3933,28 @@
         <v>24400000000</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0007454172444325189</v>
+        <v>0.000744082812361375</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.120298770908563</v>
+        <v>-0.1200834142893203</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.0007572001541905379</v>
+        <v>-0.0007558446285957943</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1203158391881265</v>
+        <v>0.1201004520135703</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3018036872766133</v>
+        <v>0.3012634039372376</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.6808896823360985</v>
+        <v>-0.6796707663080186</v>
       </c>
       <c r="H122" t="n">
-        <v>0.6860029037584913</v>
+        <v>0.6847748341357583</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.5564737781643725</v>
+        <v>-0.5554775891725724</v>
       </c>
     </row>
     <row r="123">
@@ -3962,28 +3962,28 @@
         <v>24420000000</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0007509685530666096</v>
+        <v>0.0007496241831472654</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.1231699929450125</v>
+        <v>-0.1229494963175572</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.0007509048696214052</v>
+        <v>-0.0007495606137068839</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1231700526466466</v>
+        <v>0.1229495559123088</v>
       </c>
       <c r="F123" t="n">
-        <v>0.3182251331200441</v>
+        <v>0.3176554524121262</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.6198612525206053</v>
+        <v>-0.6187515884497101</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.04942473716970595</v>
+        <v>-0.04933625792722118</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.8611228381943472</v>
+        <v>-0.8595812721209395</v>
       </c>
     </row>
     <row r="124">
@@ -3991,28 +3991,28 @@
         <v>24440000000</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0007564590408435338</v>
+        <v>0.0007551048419559179</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.1260359547161357</v>
+        <v>-0.125810327497293</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.0007564590852824322</v>
+        <v>-0.0007551048863141835</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1260359547579466</v>
+        <v>0.1258103275390383</v>
       </c>
       <c r="F124" t="n">
-        <v>0.3278551578637069</v>
+        <v>0.3272682376671942</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.6569504534502379</v>
+        <v>-0.6557743929837923</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.08416843086522377</v>
+        <v>-0.08401775410702415</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.9698327905765449</v>
+        <v>-0.9680966139800282</v>
       </c>
     </row>
     <row r="125">
@@ -4020,28 +4020,28 @@
         <v>24460000000</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0007618900110817827</v>
+        <v>0.0007605260897674381</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.1288967004037846</v>
+        <v>-0.1286659519312786</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.0007618899603954424</v>
+        <v>-0.0007605260391817375</v>
       </c>
       <c r="E125" t="n">
-        <v>0.1288967004133496</v>
+        <v>0.128665951940837</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3116421238141101</v>
+        <v>0.311084227887804</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.6634972547567513</v>
+        <v>-0.6623094743287316</v>
       </c>
       <c r="H125" t="n">
-        <v>0.6935930332797641</v>
+        <v>0.6923513759481636</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.5586913138168739</v>
+        <v>-0.5576911550327248</v>
       </c>
     </row>
     <row r="126">
@@ -4049,28 +4049,28 @@
         <v>24480000000</v>
       </c>
       <c r="B126" t="n">
-        <v>0.02415702322380601</v>
+        <v>0.02411377777649619</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1010949914495022</v>
+        <v>-0.1009140130768323</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.02261689549113846</v>
+        <v>-0.02257640715138571</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.1145025928330369</v>
+        <v>-0.1142976124256485</v>
       </c>
       <c r="F126" t="n">
-        <v>0.009348379646459766</v>
+        <v>0.009331644353645288</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.08006408025003048</v>
+        <v>-0.07992075101904529</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.02110148381090564</v>
+        <v>-0.0210637083317912</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.08737119655088667</v>
+        <v>-0.08721478625738403</v>
       </c>
     </row>
     <row r="127">
@@ -4078,28 +4078,28 @@
         <v>24500000000</v>
       </c>
       <c r="B127" t="n">
-        <v>0.000772580240846687</v>
+        <v>0.0007711971820875228</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.1346026521578323</v>
+        <v>-0.1343616889967714</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.0007725802366965248</v>
+        <v>-0.0007711971779454704</v>
       </c>
       <c r="E127" t="n">
-        <v>0.134602652182238</v>
+        <v>0.1343616890211324</v>
       </c>
       <c r="F127" t="n">
-        <v>0.3068503707958398</v>
+        <v>0.3063010529764442</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.7082556681009909</v>
+        <v>-0.7069877619938294</v>
       </c>
       <c r="H127" t="n">
-        <v>0.1007329765573337</v>
+        <v>0.100552646258167</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.8189463305162624</v>
+        <v>-0.817480268047708</v>
       </c>
     </row>
     <row r="128">
@@ -4107,28 +4107,28 @@
         <v>24520000000</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0007778424879052141</v>
+        <v>0.0007764500087706624</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.1374479092892595</v>
+        <v>-0.1372018526018708</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.0007778424862805252</v>
+        <v>-0.0007764500071472034</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1374479094472534</v>
+        <v>0.1372018527595822</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1947754365560659</v>
+        <v>0.1944267531962533</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.6864455952738908</v>
+        <v>-0.6852167331542519</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6174377717945276</v>
+        <v>0.6163324461933128</v>
       </c>
       <c r="I128" t="n">
-        <v>-0.3103719924020372</v>
+        <v>-0.3098163702441428</v>
       </c>
     </row>
     <row r="129">
@@ -4136,28 +4136,28 @@
         <v>24540000000</v>
       </c>
       <c r="B129" t="n">
-        <v>0.000783051228818744</v>
+        <v>0.0007816494250923354</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.1402880527347161</v>
+        <v>-0.1400369116754253</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.0007830551071179892</v>
+        <v>-0.0007816532964494108</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1402880515979157</v>
+        <v>0.1400369105406596</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3059934448930451</v>
+        <v>0.3054456611270261</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.548770473457743</v>
+        <v>-0.5477880747765426</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.1799500335296776</v>
+        <v>-0.1796278903309492</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.7847364289553665</v>
+        <v>-0.7833316084157482</v>
       </c>
     </row>
     <row r="130">
@@ -4165,28 +4165,28 @@
         <v>24560000000</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0007882076018686297</v>
+        <v>0.0007867965673000491</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.1431231053498277</v>
+        <v>-0.1428668890321463</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.0007882066318018301</v>
+        <v>-0.0007867955989682808</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1431231050830319</v>
+        <v>0.142866888765828</v>
       </c>
       <c r="F130" t="n">
-        <v>0.2967079490901903</v>
+        <v>0.2961767880455825</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.5354314943346108</v>
+        <v>-0.5344729748453388</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.1771653315714036</v>
+        <v>-0.1768481734943891</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.7741226196637754</v>
+        <v>-0.7727367997671766</v>
       </c>
     </row>
     <row r="131">
@@ -4194,28 +4194,28 @@
         <v>24580000000</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0007933126286587751</v>
+        <v>0.0007918924551659702</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.1459530891059548</v>
+        <v>-0.1456918066040589</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.000793312629018587</v>
+        <v>-0.000791892455525052</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1459530891056941</v>
+        <v>0.1456918066037982</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.4034938976691527</v>
+        <v>-0.4027715704079051</v>
       </c>
       <c r="G131" t="n">
-        <v>0.5786490659977725</v>
+        <v>0.5776131792166683</v>
       </c>
       <c r="H131" t="n">
-        <v>0.1632972573224396</v>
+        <v>0.1630049256133103</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.764172680525998</v>
+        <v>-0.7628046728256421</v>
       </c>
     </row>
     <row r="132">
@@ -4223,28 +4223,28 @@
         <v>24600000000</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0007983672257820027</v>
+        <v>0.0007969380036444156</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.1487780251745531</v>
+        <v>-0.1485116855247173</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.0007983686891994546</v>
+        <v>-0.0007969394644395014</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1487780290309524</v>
+        <v>0.1485116893742125</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3095592511967615</v>
+        <v>0.309005083990906</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.4210299765894456</v>
+        <v>-0.4202762565669276</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.07702333750686415</v>
+        <v>-0.07688545176278808</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.7391303925021522</v>
+        <v>-0.7378072150393745</v>
       </c>
     </row>
     <row r="133">
@@ -4252,28 +4252,28 @@
         <v>24620000000</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0008033722151069549</v>
+        <v>0.0008019340331302705</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.1515979340020119</v>
+        <v>-0.1513265462039122</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.0008033721729581175</v>
+        <v>-0.0008019339910544775</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1515979341589402</v>
+        <v>0.1513265463605605</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1383010222169394</v>
+        <v>0.1380534383029681</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.6353163011264203</v>
+        <v>-0.6341789697156099</v>
       </c>
       <c r="H133" t="n">
-        <v>0.6780426064382407</v>
+        <v>0.6768287871919093</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.2121720217648543</v>
+        <v>-0.2117921953599899</v>
       </c>
     </row>
     <row r="134">
@@ -4281,28 +4281,28 @@
         <v>24640000000</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0008083283328884835</v>
+        <v>0.0008068812785606383</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.1544128353755214</v>
+        <v>-0.1541364083934066</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.0008083125852830327</v>
+        <v>-0.0008068655591473652</v>
       </c>
       <c r="E134" t="n">
-        <v>0.154412816502215</v>
+        <v>0.1541363895538863</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1771478348954021</v>
+        <v>0.1768307081407945</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.5863513058704664</v>
+        <v>-0.5853016306826772</v>
       </c>
       <c r="H134" t="n">
-        <v>0.695949431061252</v>
+        <v>0.6947035553475596</v>
       </c>
       <c r="I134" t="n">
-        <v>0.3207110892193875</v>
+        <v>0.3201369582015237</v>
       </c>
     </row>
     <row r="135">
@@ -4310,28 +4310,28 @@
         <v>24660000000</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0008132362381306108</v>
+        <v>0.0008117803977629686</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.157222748482005</v>
+        <v>-0.1569412912457788</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.0008132363761865865</v>
+        <v>-0.0008117805355710912</v>
       </c>
       <c r="E135" t="n">
-        <v>0.1572227483612845</v>
+        <v>0.1569412911252732</v>
       </c>
       <c r="F135" t="n">
-        <v>0.2267221113908813</v>
+        <v>0.2263162376894534</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.6459089743631244</v>
+        <v>-0.6447526801472125</v>
       </c>
       <c r="H135" t="n">
-        <v>0.06575858474310105</v>
+        <v>0.06564086495052106</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.8276467322902882</v>
+        <v>-0.8261650945256804</v>
       </c>
     </row>
     <row r="136">
@@ -4339,28 +4339,28 @@
         <v>24680000000</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0008180965195010366</v>
+        <v>0.0008166319783482803</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.1600276919601178</v>
+        <v>-0.1597412133663161</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.0008180963194277616</v>
+        <v>-0.0008166317786331703</v>
       </c>
       <c r="E136" t="n">
-        <v>0.1600276918982414</v>
+        <v>0.1597412133045513</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1989798849500159</v>
+        <v>0.1986236748654061</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.637990510571498</v>
+        <v>-0.6368483918414943</v>
       </c>
       <c r="H136" t="n">
-        <v>0.8130193286403322</v>
+        <v>0.8115638765792069</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.4835557564937535</v>
+        <v>-0.4826901039832951</v>
       </c>
     </row>
     <row r="137">
@@ -4368,28 +4368,28 @@
         <v>24700000000</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0008229097021850313</v>
+        <v>0.0008214365445615994</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.1628276839469762</v>
+        <v>-0.1625361928596667</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.0008229100306387395</v>
+        <v>-0.0008214368724285152</v>
       </c>
       <c r="E137" t="n">
-        <v>0.162827683879011</v>
+        <v>0.1625361927918232</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1821301268095285</v>
+        <v>0.181804080847088</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.6429609218329524</v>
+        <v>-0.6418099051660888</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.1212530610078561</v>
+        <v>-0.1210359960352602</v>
       </c>
       <c r="I137" t="n">
-        <v>0.6317788142689551</v>
+        <v>0.6306478156010239</v>
       </c>
     </row>
     <row r="138">
@@ -4397,28 +4397,28 @@
         <v>24720000000</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0008276762535529481</v>
+        <v>0.0008261945629379469</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.1656227421196682</v>
+        <v>-0.1653262473712724</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.0008276761984840502</v>
+        <v>-0.0008261945079684624</v>
       </c>
       <c r="E138" t="n">
-        <v>0.1656227419931831</v>
+        <v>0.1653262472450139</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1781579682384825</v>
+        <v>0.1778390331625931</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.6937397879411463</v>
+        <v>-0.6924978678898104</v>
       </c>
       <c r="H138" t="n">
-        <v>0.2070179135236578</v>
+        <v>0.206647313909546</v>
       </c>
       <c r="I138" t="n">
-        <v>-0.7589492815756274</v>
+        <v>-0.7575906247101393</v>
       </c>
     </row>
     <row r="139">
@@ -4426,28 +4426,28 @@
         <v>24740000000</v>
       </c>
       <c r="B139" t="n">
-        <v>0.000832396588481594</v>
+        <v>0.0008309064476114665</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.1684128837326273</v>
+        <v>-0.1681113941246797</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.0008323966133130315</v>
+        <v>-0.0008309064723982551</v>
       </c>
       <c r="E139" t="n">
-        <v>0.1684128836236064</v>
+        <v>0.1681113940158548</v>
       </c>
       <c r="F139" t="n">
-        <v>0.09351074552079873</v>
+        <v>0.09334334432573646</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.6145861561188521</v>
+        <v>-0.6134859354281151</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.1076494024466808</v>
+        <v>-0.1074566904972596</v>
       </c>
       <c r="I139" t="n">
-        <v>0.5853482166214256</v>
+        <v>0.5843003371513411</v>
       </c>
     </row>
     <row r="140">
@@ -4455,28 +4455,28 @@
         <v>24760000000</v>
       </c>
       <c r="B140" t="n">
-        <v>0.00083707107392965</v>
+        <v>0.0008355725648822993</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.1711981256508229</v>
+        <v>-0.1708916499546652</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.0008370710744558303</v>
+        <v>-0.0008355725654084096</v>
       </c>
       <c r="E140" t="n">
-        <v>0.1711981256497495</v>
+        <v>0.1708916499535935</v>
       </c>
       <c r="F140" t="n">
-        <v>0.07778384604135101</v>
+        <v>0.07764459884823505</v>
       </c>
       <c r="G140" t="n">
-        <v>-0.6423479862786504</v>
+        <v>-0.6411980668772966</v>
       </c>
       <c r="H140" t="n">
-        <v>0.2252016482727872</v>
+        <v>0.2247984964770837</v>
       </c>
       <c r="I140" t="n">
-        <v>-0.7161797955872269</v>
+        <v>-0.7148977038543208</v>
       </c>
     </row>
     <row r="141">
@@ -4484,28 +4484,28 @@
         <v>24780000000</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0008417000335136216</v>
+        <v>0.0008401932377904077</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.1739784843804756</v>
+        <v>-0.1736670313379004</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.0008417000464516285</v>
+        <v>-0.0008401932507038487</v>
       </c>
       <c r="E141" t="n">
-        <v>0.173978484328196</v>
+        <v>0.1736670312857149</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1752290304642219</v>
+        <v>0.1749153387175111</v>
       </c>
       <c r="G141" t="n">
-        <v>-0.5465118479189938</v>
+        <v>-0.5455334925867793</v>
       </c>
       <c r="H141" t="n">
-        <v>0.7882838299602362</v>
+        <v>0.7868726589290939</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.4395040753776798</v>
+        <v>-0.4387172833675324</v>
       </c>
     </row>
     <row r="142">
@@ -4513,28 +4513,28 @@
         <v>24800000000</v>
       </c>
       <c r="B142" t="n">
-        <v>0.000846283751785668</v>
+        <v>0.000844768750374889</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.1767539760921982</v>
+        <v>-0.1764375544160522</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.000846285352048101</v>
+        <v>-0.0008447703477722355</v>
       </c>
       <c r="E142" t="n">
-        <v>0.1767539745441191</v>
+        <v>0.1764375528707443</v>
       </c>
       <c r="F142" t="n">
-        <v>0.4047745727992178</v>
+        <v>0.4040499528982258</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.3702850789564913</v>
+        <v>-0.3696222015056398</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.7933233072379823</v>
+        <v>-0.7919031146247818</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1754655353328929</v>
+        <v>0.1751514202013426</v>
       </c>
     </row>
     <row r="143">
@@ -4542,28 +4542,28 @@
         <v>24820000000</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0008508224735690002</v>
+        <v>0.0008492993470223426</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.17952461666219</v>
+        <v>-0.1792032350368956</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.0008508224922433975</v>
+        <v>-0.0008492993656633553</v>
       </c>
       <c r="E143" t="n">
-        <v>0.1795246167206236</v>
+        <v>0.1792032350952258</v>
       </c>
       <c r="F143" t="n">
-        <v>0.7584977569502476</v>
+        <v>0.7571399083931283</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.5307209827286375</v>
+        <v>-0.5297708959096618</v>
       </c>
       <c r="H143" t="n">
-        <v>0.08196144230723472</v>
+        <v>0.08181471646022295</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.4316222421637622</v>
+        <v>-0.430849560064491</v>
       </c>
     </row>
     <row r="144">
@@ -4571,28 +4571,28 @@
         <v>24840000000</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0008553164162787303</v>
+        <v>0.0008537852447585032</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.1822904216606334</v>
+        <v>-0.1819640887427413</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.0008553164492980973</v>
+        <v>-0.0008537852777218935</v>
       </c>
       <c r="E144" t="n">
-        <v>0.1822904217131594</v>
+        <v>0.1819640887951732</v>
       </c>
       <c r="F144" t="n">
-        <v>0.5730946805493883</v>
+        <v>0.5720687371274102</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.3009794669107807</v>
+        <v>-0.3004406590734205</v>
       </c>
       <c r="H144" t="n">
-        <v>0.157440939017653</v>
+        <v>0.1571590911799377</v>
       </c>
       <c r="I144" t="n">
-        <v>-0.8032893417932951</v>
+        <v>-0.801851308174088</v>
       </c>
     </row>
     <row r="145">
@@ -4600,28 +4600,28 @@
         <v>24860000000</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0008597657631455216</v>
+        <v>0.0008582266264887347</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.185051406407864</v>
+        <v>-0.1847201308264978</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.0008597657631453415</v>
+        <v>-0.0008582266264888724</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1850514064078616</v>
+        <v>0.184720130826494</v>
       </c>
       <c r="F145" t="n">
-        <v>0.3200523713701436</v>
+        <v>0.3194794195746039</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.7151860815606387</v>
+        <v>-0.713905768756567</v>
       </c>
       <c r="H145" t="n">
-        <v>0.02738619065078596</v>
+        <v>0.02733716440388834</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.5546451080389174</v>
+        <v>-0.5536521926909174</v>
       </c>
     </row>
     <row r="146">
@@ -4629,28 +4629,28 @@
         <v>24880000000</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0008641706711036546</v>
+        <v>0.0008626236488617476</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.187807585971228</v>
+        <v>-0.1874713763285405</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.0008641706711005144</v>
+        <v>-0.0008626236488596843</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1878075859712126</v>
+        <v>0.1874713763285248</v>
       </c>
       <c r="F146" t="n">
-        <v>0.2777572585364043</v>
+        <v>0.2772600226649479</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.7028612832894674</v>
+        <v>-0.7016030341098483</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.3052237398866119</v>
+        <v>-0.3046773340304038</v>
       </c>
       <c r="I146" t="n">
-        <v>0.7154778492242944</v>
+        <v>0.7141970141062693</v>
       </c>
     </row>
     <row r="147">
@@ -4658,28 +4658,28 @@
         <v>24900000000</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0008685312717541319</v>
+        <v>0.0008669764432470808</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.190558975188512</v>
+        <v>-0.1902178400600891</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.000868531279739397</v>
+        <v>-0.0008669764512173665</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1905589752007402</v>
+        <v>0.1902178400722949</v>
       </c>
       <c r="F147" t="n">
-        <v>0.3177612563814679</v>
+        <v>0.3171924061087273</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.7132353187998897</v>
+        <v>-0.7119584982257022</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.3692778578407918</v>
+        <v>-0.3686167835246595</v>
       </c>
       <c r="I147" t="n">
-        <v>0.7281085581584352</v>
+        <v>0.7268051118077803</v>
       </c>
     </row>
     <row r="148">
@@ -4687,28 +4687,28 @@
         <v>24920000000</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0008728476740118164</v>
+        <v>0.0008712851183625671</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.1933055886816405</v>
+        <v>-0.1929595366168934</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.0008728476726562229</v>
+        <v>-0.0008712851170077082</v>
       </c>
       <c r="E148" t="n">
-        <v>0.1933055886738265</v>
+        <v>0.1929595366090924</v>
       </c>
       <c r="F148" t="n">
-        <v>0.2672479720272568</v>
+        <v>0.2667695496847176</v>
       </c>
       <c r="G148" t="n">
-        <v>-0.667001612520415</v>
+        <v>-0.6658075586633329</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.2645844342754204</v>
+        <v>-0.2641107801485653</v>
       </c>
       <c r="I148" t="n">
-        <v>0.631649631565408</v>
+        <v>0.6305188641730438</v>
       </c>
     </row>
     <row r="149">
@@ -4716,28 +4716,28 @@
         <v>24940000000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0008771199743196689</v>
+        <v>0.0008755497704779537</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.1960474409953314</v>
+        <v>-0.1956964805176362</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.000877121316233698</v>
+        <v>-0.0008755511099885002</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1960474415728378</v>
+        <v>0.1956964810941088</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.641356611465375</v>
+        <v>-0.6402084668043241</v>
       </c>
       <c r="G149" t="n">
-        <v>0.3785461609785295</v>
+        <v>0.3778684946773084</v>
       </c>
       <c r="H149" t="n">
-        <v>0.6055437731231545</v>
+        <v>0.6044597399334941</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.4114237226238391</v>
+        <v>-0.4106871995287928</v>
       </c>
     </row>
     <row r="150">
@@ -4745,28 +4745,28 @@
         <v>24960000000</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0008813484135394515</v>
+        <v>0.0008797706400230779</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.1987845458878511</v>
+        <v>-0.1984286854959527</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.000881349543413191</v>
+        <v>-0.0008797717678755747</v>
       </c>
       <c r="E150" t="n">
-        <v>0.198784545811251</v>
+        <v>0.1984286854194895</v>
       </c>
       <c r="F150" t="n">
-        <v>0.2310958322131191</v>
+        <v>0.23068212875663</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.7315786473818128</v>
+        <v>-0.7302689889117145</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.22075152797273</v>
+        <v>-0.2203563426980563</v>
       </c>
       <c r="I150" t="n">
-        <v>0.7323689727280909</v>
+        <v>0.7310578994312632</v>
       </c>
     </row>
     <row r="151">
@@ -4787,28 +4787,28 @@
         <v>25000000000</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.03499679968972724</v>
+        <v>-0.03493414907066775</v>
       </c>
       <c r="C152" t="n">
-        <v>0.02709812266146738</v>
+        <v>0.02704961210696805</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.02068537268725655</v>
+        <v>-0.02064834211833443</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.04107828371090747</v>
+        <v>-0.04100474613241994</v>
       </c>
       <c r="F152" t="n">
-        <v>-0.002192935475903999</v>
+        <v>-0.002189009723712918</v>
       </c>
       <c r="G152" t="n">
-        <v>-0.05705393883959347</v>
+        <v>-0.05695180194081766</v>
       </c>
       <c r="H152" t="n">
-        <v>0.04103772723428888</v>
+        <v>0.04096426225923808</v>
       </c>
       <c r="I152" t="n">
-        <v>-0.03674545976368709</v>
+        <v>-0.03667967872597675</v>
       </c>
     </row>
     <row r="153">
@@ -4816,28 +4816,28 @@
         <v>25020000000</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.0008937690921570766</v>
+        <v>-0.000892169083375241</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2069675185492284</v>
+        <v>0.2065970091520699</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0008937691069725158</v>
+        <v>0.0008921690981607116</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.2069675182998549</v>
+        <v>-0.2065970089031436</v>
       </c>
       <c r="F153" t="n">
-        <v>0.5046070949495491</v>
+        <v>0.5037037567667169</v>
       </c>
       <c r="G153" t="n">
-        <v>-0.9411495798876679</v>
+        <v>-0.9394647515220199</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.8029089264159308</v>
+        <v>-0.8014715737522792</v>
       </c>
       <c r="I153" t="n">
-        <v>0.6587893310744587</v>
+        <v>0.6576099786664704</v>
       </c>
     </row>
     <row r="154">
@@ -4845,28 +4845,28 @@
         <v>25040000000</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.0008978214840026445</v>
+        <v>-0.000896214220703592</v>
       </c>
       <c r="C154" t="n">
-        <v>0.209685774474739</v>
+        <v>0.2093103989064499</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0008978221534396246</v>
+        <v>0.0008962148889417073</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.2096857752897728</v>
+        <v>-0.2093103997200236</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.1271549411041553</v>
+        <v>-0.126927310697925</v>
       </c>
       <c r="G154" t="n">
-        <v>0.766684265968692</v>
+        <v>0.7653117620740194</v>
       </c>
       <c r="H154" t="n">
-        <v>0.09914456767062368</v>
+        <v>0.09896708091430508</v>
       </c>
       <c r="I154" t="n">
-        <v>-0.764642415983253</v>
+        <v>-0.7632735673700809</v>
       </c>
     </row>
     <row r="155">
@@ -4874,28 +4874,28 @@
         <v>25060000000</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.0009018330500885341</v>
+        <v>-0.0009002186053576522</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2123993472828505</v>
+        <v>0.2120191139270563</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0009018346855904501</v>
+        <v>0.0009002202379322563</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.2123993469745461</v>
+        <v>-0.2120191136193031</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.4496042153720054</v>
+        <v>-0.4487993422884008</v>
       </c>
       <c r="G155" t="n">
-        <v>0.4443882361797609</v>
+        <v>0.4435927006358718</v>
       </c>
       <c r="H155" t="n">
-        <v>0.4519936870445565</v>
+        <v>0.4511845363746849</v>
       </c>
       <c r="I155" t="n">
-        <v>-0.3827298808702029</v>
+        <v>-0.3820447249664697</v>
       </c>
     </row>
     <row r="156">
@@ -4903,28 +4903,28 @@
         <v>25080000000</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.0009057941661621746</v>
+        <v>-0.0009041726303170089</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2151082643747951</v>
+        <v>0.2147231815660724</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0009057938444339961</v>
+        <v>0.0009041723091610727</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.2151082651088831</v>
+        <v>-0.2147231822988457</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7590144610876105</v>
+        <v>0.7576556875414728</v>
       </c>
       <c r="G156" t="n">
-        <v>-0.4369000425510458</v>
+        <v>-0.4361179122410985</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.7300686754223791</v>
+        <v>-0.7287617200915629</v>
       </c>
       <c r="I156" t="n">
-        <v>0.3800161044168157</v>
+        <v>0.3793358066683784</v>
       </c>
     </row>
     <row r="157">
@@ -4945,28 +4945,28 @@
         <v>25120000000</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0009135917679365037</v>
+        <v>0.0009119562729685167</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.2205121456734103</v>
+        <v>-0.2201173889370297</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.0009135917669210064</v>
+        <v>-0.000911956271954942</v>
       </c>
       <c r="E158" t="n">
-        <v>0.2205121456738326</v>
+        <v>0.2201173889374514</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.2738779068928257</v>
+        <v>-0.2733876157653631</v>
       </c>
       <c r="G158" t="n">
-        <v>0.6868051428567237</v>
+        <v>0.6855756370814264</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.04122545573934434</v>
+        <v>-0.04115165469725319</v>
       </c>
       <c r="I158" t="n">
-        <v>0.4498133638980417</v>
+        <v>0.4490081163848751</v>
       </c>
     </row>
     <row r="159">
@@ -4974,28 +4974,28 @@
         <v>25140000000</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0009173976999104505</v>
+        <v>0.0009157553916332022</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.2232071728902665</v>
+        <v>-0.2228075915663554</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.0009174278546960614</v>
+        <v>-0.0009157854924365965</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2232071417124607</v>
+        <v>0.2228075604443637</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.8223238001309666</v>
+        <v>-0.8208516913772673</v>
       </c>
       <c r="G159" t="n">
-        <v>0.6823621007892567</v>
+        <v>0.6811405488649824</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.01301157776175053</v>
+        <v>-0.01298828467730677</v>
       </c>
       <c r="I159" t="n">
-        <v>0.3631705720442014</v>
+        <v>0.3625204308496114</v>
       </c>
     </row>
     <row r="160">
@@ -5003,28 +5003,28 @@
         <v>25160000000</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.000921212353386698</v>
+        <v>-0.0009195632161890558</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2258975241826725</v>
+        <v>0.2254931266419818</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0009212154385888838</v>
+        <v>0.0009195662958679325</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.2258975231812309</v>
+        <v>-0.2254931256423334</v>
       </c>
       <c r="F160" t="n">
-        <v>0.7216580287984516</v>
+        <v>0.7203661300551706</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.219663154578033</v>
+        <v>-0.2192699176954577</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.4733945937578363</v>
+        <v>-0.4725471315800008</v>
       </c>
       <c r="I160" t="n">
-        <v>0.3528117821584172</v>
+        <v>0.3521801850695567</v>
       </c>
     </row>
     <row r="161">
@@ -5032,28 +5032,28 @@
         <v>25180000000</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.0009249570654835316</v>
+        <v>-0.0009233012245725329</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2285833058434963</v>
+        <v>0.2281741002664963</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0009249537981074691</v>
+        <v>0.0009232979630439588</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.2285833047930622</v>
+        <v>-0.2281740992179419</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.06570666211894349</v>
+        <v>-0.06558903527603048</v>
       </c>
       <c r="G161" t="n">
-        <v>0.4903232118666272</v>
+        <v>0.4894454443844202</v>
       </c>
       <c r="H161" t="n">
-        <v>0.03976076741371923</v>
+        <v>0.03968958842870816</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.4440148606994678</v>
+        <v>-0.4432199935646371</v>
       </c>
     </row>
     <row r="162">
@@ -5061,28 +5061,28 @@
         <v>25200000000</v>
       </c>
       <c r="B162" t="n">
-        <v>0.01475074051061815</v>
+        <v>0.01472433400965507</v>
       </c>
       <c r="C162" t="n">
-        <v>0.02272648290396635</v>
+        <v>0.02268579837756697</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0204652105292677</v>
+        <v>0.02042857409045493</v>
       </c>
       <c r="E162" t="n">
-        <v>0.06014371993628639</v>
+        <v>0.06003605176900357</v>
       </c>
       <c r="F162" t="n">
-        <v>0.02853158069987393</v>
+        <v>0.02848050399549111</v>
       </c>
       <c r="G162" t="n">
-        <v>0.04528058043751554</v>
+        <v>0.04519951998575596</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.008482663250643806</v>
+        <v>-0.008467477744839448</v>
       </c>
       <c r="I162" t="n">
-        <v>0.01185507501750911</v>
+        <v>0.01183385228295354</v>
       </c>
     </row>
     <row r="163">
@@ -5090,28 +5090,28 @@
         <v>25220000000</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.0009323126073128367</v>
+        <v>-0.0009306435986472478</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2339411194836877</v>
+        <v>0.2335223224484924</v>
       </c>
       <c r="D163" t="n">
-        <v>0.0009322961673574623</v>
+        <v>0.0009306271881209762</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.233941142637068</v>
+        <v>-0.2335223455604234</v>
       </c>
       <c r="F163" t="n">
-        <v>0.3843663401451022</v>
+        <v>0.3836782546782114</v>
       </c>
       <c r="G163" t="n">
-        <v>0.7917161324658023</v>
+        <v>0.7902988169957509</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.3804138877322918</v>
+        <v>-0.3797328778763241</v>
       </c>
       <c r="I163" t="n">
-        <v>0.2615797875304232</v>
+        <v>0.2611115122660436</v>
       </c>
     </row>
     <row r="164">
@@ -5119,28 +5119,28 @@
         <v>25240000000</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.0009359249042300006</v>
+        <v>-0.0009342494288970862</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2366131759826535</v>
+        <v>0.2361895954816779</v>
       </c>
       <c r="D164" t="n">
-        <v>0.0009355506970198549</v>
+        <v>0.0009338758915860071</v>
       </c>
       <c r="E164" t="n">
-        <v>-0.2366132512698998</v>
+        <v>-0.2361896706341464</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.1191533333934312</v>
+        <v>-0.1189400273152502</v>
       </c>
       <c r="G164" t="n">
-        <v>0.505053950716943</v>
+        <v>0.5041498125404011</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.7480480782100465</v>
+        <v>-0.7467089364733839</v>
       </c>
       <c r="I164" t="n">
-        <v>0.7562326392979427</v>
+        <v>0.7548788457092457</v>
       </c>
     </row>
     <row r="165">
@@ -5148,28 +5148,28 @@
         <v>25260000000</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.0009394932505532345</v>
+        <v>-0.0009378113872324814</v>
       </c>
       <c r="C165" t="n">
-        <v>0.2392806835058178</v>
+        <v>0.2388523276825537</v>
       </c>
       <c r="D165" t="n">
-        <v>0.0009396197508503069</v>
+        <v>0.0009379376610713123</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.2392807706478345</v>
+        <v>-0.2388524146685702</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.9220000118873444</v>
+        <v>-0.9203494646356838</v>
       </c>
       <c r="G165" t="n">
-        <v>0.5919863463774624</v>
+        <v>0.5909265834437842</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.1132556922961914</v>
+        <v>-0.1130529440652122</v>
       </c>
       <c r="I165" t="n">
-        <v>0.5056311393581701</v>
+        <v>0.5047259679094437</v>
       </c>
     </row>
     <row r="166">
@@ -5177,28 +5177,28 @@
         <v>25280000000</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.0009430157640118124</v>
+        <v>-0.0009413275947531391</v>
       </c>
       <c r="C166" t="n">
-        <v>0.2419436516581244</v>
+        <v>0.2415105286388688</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0009427541101419061</v>
+        <v>0.0009410664092922565</v>
       </c>
       <c r="E166" t="n">
-        <v>-0.2419435316653807</v>
+        <v>-0.2415104088609348</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.1260268524599183</v>
+        <v>-0.1258012415356737</v>
       </c>
       <c r="G166" t="n">
-        <v>0.540850216309106</v>
+        <v>0.5398819963248924</v>
       </c>
       <c r="H166" t="n">
-        <v>0.5439758902625541</v>
+        <v>0.5430020747519929</v>
       </c>
       <c r="I166" t="n">
-        <v>-1.130537634885919</v>
+        <v>-1.12851376746741</v>
       </c>
     </row>
     <row r="167">
@@ -5206,28 +5206,28 @@
         <v>25300000000</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.0009464914699251381</v>
+        <v>-0.0009447970785214447</v>
       </c>
       <c r="C167" t="n">
-        <v>0.24460209214859</v>
+        <v>0.2441642100386789</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0009464691169566857</v>
+        <v>0.0009447747655717695</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.2446021061224591</v>
+        <v>-0.2441642239875329</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.150231801023381</v>
+        <v>-0.1499628588513084</v>
       </c>
       <c r="G167" t="n">
-        <v>0.6101008506407928</v>
+        <v>0.6090086594608143</v>
       </c>
       <c r="H167" t="n">
-        <v>0.2419009261628981</v>
+        <v>0.2414678796393623</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.7441840801068503</v>
+        <v>-0.7428518556283347</v>
       </c>
     </row>
     <row r="168">
@@ -5235,28 +5235,28 @@
         <v>25320000000</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.0009499247710179296</v>
+        <v>-0.0009482242333842203</v>
       </c>
       <c r="C168" t="n">
-        <v>0.2472560204146334</v>
+        <v>0.2468133872917671</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0009499510726728799</v>
+        <v>0.0009482504879540169</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.2472560224145404</v>
+        <v>-0.2468133892880954</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.1784088588020795</v>
+        <v>-0.1780894745855414</v>
       </c>
       <c r="G168" t="n">
-        <v>0.6152151257447994</v>
+        <v>0.6141137790842652</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.7488115111193167</v>
+        <v>-0.7474710026982275</v>
       </c>
       <c r="I168" t="n">
-        <v>0.3786586955412674</v>
+        <v>0.3779808277958902</v>
       </c>
     </row>
     <row r="169">
@@ -5264,28 +5264,28 @@
         <v>25340000000</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.0009533132408178012</v>
+        <v>-0.0009516066372095632</v>
       </c>
       <c r="C169" t="n">
-        <v>0.2499054469320545</v>
+        <v>0.2494580708551793</v>
       </c>
       <c r="D169" t="n">
-        <v>0.0009533370658693882</v>
+        <v>0.0009516304196084026</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.2499054379471667</v>
+        <v>-0.249458061886377</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.1877444298101185</v>
+        <v>-0.1874083332300717</v>
       </c>
       <c r="G169" t="n">
-        <v>0.651779905488737</v>
+        <v>0.6506131012408847</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.7029012498314551</v>
+        <v>-0.7016429291033774</v>
       </c>
       <c r="I169" t="n">
-        <v>0.5442529300789295</v>
+        <v>0.5432786186231865</v>
       </c>
     </row>
     <row r="170">
@@ -5293,28 +5293,28 @@
         <v>25360000000</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.0009566564443185471</v>
+        <v>-0.0009549438557693589</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2525503843251293</v>
+        <v>0.2520982733305929</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0009543360482136428</v>
+        <v>0.0009526276135924669</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.252548861533527</v>
+        <v>-0.2520967532650644</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.1464041759856648</v>
+        <v>-0.1461420859564379</v>
       </c>
       <c r="G170" t="n">
-        <v>0.5946185952324737</v>
+        <v>0.5935541200972266</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.7750960713409528</v>
+        <v>-0.7737085087879784</v>
       </c>
       <c r="I170" t="n">
-        <v>-0.0889620545861662</v>
+        <v>-0.08880279637258491</v>
       </c>
     </row>
     <row r="171">
@@ -5322,28 +5322,28 @@
         <v>25380000000</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.0009599555800849966</v>
+        <v>-0.0009582370854827946</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2551908424803698</v>
+        <v>0.2547340045868194</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0009601994122328013</v>
+        <v>0.0009584804811282173</v>
       </c>
       <c r="E171" t="n">
-        <v>-0.2551905664613721</v>
+        <v>-0.2547337290619452</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.1287208479188799</v>
+        <v>-0.1284904142540806</v>
       </c>
       <c r="G171" t="n">
-        <v>0.6366701824221308</v>
+        <v>0.6355304273188006</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.6936260895325302</v>
+        <v>-0.6923843730238028</v>
       </c>
       <c r="I171" t="n">
-        <v>0.3684933143407031</v>
+        <v>0.3678336444724115</v>
       </c>
     </row>
     <row r="172">
@@ -5351,28 +5351,28 @@
         <v>25400000000</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.0009632093059362994</v>
+        <v>-0.0009614849865751781</v>
       </c>
       <c r="C172" t="n">
-        <v>0.257826835218542</v>
+        <v>0.2573652784198838</v>
       </c>
       <c r="D172" t="n">
-        <v>0.000963102190292181</v>
+        <v>0.0009613780626883465</v>
       </c>
       <c r="E172" t="n">
-        <v>-0.2578268585314821</v>
+        <v>-0.2573653016910899</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.167826694636268</v>
+        <v>-0.1675262544133297</v>
       </c>
       <c r="G172" t="n">
-        <v>0.6829991771090663</v>
+        <v>0.6817764847022696</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.5477703640068906</v>
+        <v>-0.5467897557031312</v>
       </c>
       <c r="I172" t="n">
-        <v>0.4479631107702903</v>
+        <v>0.4471611755525068</v>
       </c>
     </row>
     <row r="173">
@@ -5380,28 +5380,28 @@
         <v>25420000000</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.0009664179397815521</v>
+        <v>-0.000964687876383801</v>
       </c>
       <c r="C173" t="n">
-        <v>0.2604583736459699</v>
+        <v>0.2599921059162287</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0009664924098825647</v>
+        <v>0.000964762213170447</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.2604588681634307</v>
+        <v>-0.2599925995484133</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.2836325232805321</v>
+        <v>-0.2831247696194624</v>
       </c>
       <c r="G173" t="n">
-        <v>0.454884221491106</v>
+        <v>0.4540698962292413</v>
       </c>
       <c r="H173" t="n">
-        <v>0.09026183331876711</v>
+        <v>0.09010024826578877</v>
       </c>
       <c r="I173" t="n">
-        <v>0.7423375431521627</v>
+        <v>0.7410086243072403</v>
       </c>
     </row>
     <row r="174">
@@ -5409,28 +5409,28 @@
         <v>25440000000</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.0009695815871346949</v>
+        <v>-0.0009678458602342692</v>
       </c>
       <c r="C174" t="n">
-        <v>0.2630854694813272</v>
+        <v>0.2626144987735488</v>
       </c>
       <c r="D174" t="n">
-        <v>0.0009706597949463911</v>
+        <v>0.000968922137859659</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.2630850147876337</v>
+        <v>-0.262614044893838</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.1554537752141099</v>
+        <v>-0.1551754847609182</v>
       </c>
       <c r="G174" t="n">
-        <v>0.6550930705602815</v>
+        <v>0.6539203351457642</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.9145004121188834</v>
+        <v>-0.9128632905125611</v>
       </c>
       <c r="I174" t="n">
-        <v>0.4886872037824612</v>
+        <v>0.4878123650507361</v>
       </c>
     </row>
     <row r="175">
@@ -5451,28 +5451,28 @@
         <v>25480000000</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.0009757723715131952</v>
+        <v>-0.0009740255619859945</v>
       </c>
       <c r="C176" t="n">
-        <v>0.2683263799219134</v>
+        <v>0.2678460270338655</v>
       </c>
       <c r="D176" t="n">
-        <v>0.0009757645461293942</v>
+        <v>0.0009740177506097282</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.2683262378404268</v>
+        <v>-0.2678458852067386</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.3152197519709208</v>
+        <v>-0.314655451441535</v>
       </c>
       <c r="G176" t="n">
-        <v>0.5624709543119006</v>
+        <v>0.5614640292849029</v>
       </c>
       <c r="H176" t="n">
-        <v>0.1511211723656382</v>
+        <v>0.1508506380571306</v>
       </c>
       <c r="I176" t="n">
-        <v>0.7956463199582323</v>
+        <v>0.7942219687342099</v>
       </c>
     </row>
     <row r="177">
@@ -5480,28 +5480,28 @@
         <v>25500000000</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.0009787997275403414</v>
+        <v>-0.000977047498494858</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2709402175574424</v>
+        <v>0.2704551854259497</v>
       </c>
       <c r="D177" t="n">
-        <v>0.0009787840773641638</v>
+        <v>0.0009770318763377185</v>
       </c>
       <c r="E177" t="n">
-        <v>-0.2709399441470824</v>
+        <v>-0.2704549125050341</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.3211315646563392</v>
+        <v>-0.3205566809104208</v>
       </c>
       <c r="G177" t="n">
-        <v>0.6128004547089414</v>
+        <v>0.6117034307476812</v>
       </c>
       <c r="H177" t="n">
-        <v>0.01248896697485382</v>
+        <v>0.012466609458023</v>
       </c>
       <c r="I177" t="n">
-        <v>0.8209722072987414</v>
+        <v>0.8195025181428692</v>
       </c>
     </row>
     <row r="178">
@@ -5522,28 +5522,28 @@
         <v>25540000000</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.0009847178928016364</v>
+        <v>-0.0009829550691659149</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2761547150840471</v>
+        <v>0.2756603480561914</v>
       </c>
       <c r="D179" t="n">
-        <v>0.0009847261298949221</v>
+        <v>0.0009829632915137317</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.2761547083235153</v>
+        <v>-0.275660341307764</v>
       </c>
       <c r="F179" t="n">
-        <v>-0.2456573760519</v>
+        <v>-0.245217604792672</v>
       </c>
       <c r="G179" t="n">
-        <v>0.6807994580446688</v>
+        <v>0.6795807035336201</v>
       </c>
       <c r="H179" t="n">
-        <v>0.1311520289072274</v>
+        <v>0.1309172429877899</v>
       </c>
       <c r="I179" t="n">
-        <v>0.8331133761942149</v>
+        <v>0.8316219521430583</v>
       </c>
     </row>
     <row r="180">
@@ -5551,28 +5551,28 @@
         <v>25560000000</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.000987608509189566</v>
+        <v>-0.0009858405108273841</v>
       </c>
       <c r="C180" t="n">
-        <v>0.2787553977318779</v>
+        <v>0.2782563750103789</v>
       </c>
       <c r="D180" t="n">
-        <v>0.0009876084374923029</v>
+        <v>0.0009858404392611693</v>
       </c>
       <c r="E180" t="n">
-        <v>-0.2787553605244209</v>
+        <v>-0.2782563378695347</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.4198733425102457</v>
+        <v>-0.4191216930721877</v>
       </c>
       <c r="G180" t="n">
-        <v>0.4624082792626207</v>
+        <v>0.4615804845727817</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.1497207602229284</v>
+        <v>-0.1494527329064581</v>
       </c>
       <c r="I180" t="n">
-        <v>0.6750635150847739</v>
+        <v>0.6738550289523039</v>
       </c>
     </row>
     <row r="181">
@@ -5580,28 +5580,28 @@
         <v>25580000000</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.0009904533815525023</v>
+        <v>-0.0009886802903538762</v>
       </c>
       <c r="C181" t="n">
-        <v>0.281351718059371</v>
+        <v>0.2808480474535799</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0009904558278978045</v>
+        <v>0.0009886827323204966</v>
       </c>
       <c r="E181" t="n">
-        <v>-0.2813517500020523</v>
+        <v>-0.2808480793390706</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.2861938402648154</v>
+        <v>-0.2856815013821352</v>
       </c>
       <c r="G181" t="n">
-        <v>0.6770834531963562</v>
+        <v>0.6758713510084499</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.01754596032567954</v>
+        <v>-0.01751454987429563</v>
       </c>
       <c r="I181" t="n">
-        <v>0.8357129042133725</v>
+        <v>0.834216826536256</v>
       </c>
     </row>
     <row r="182">
@@ -5609,28 +5609,28 @@
         <v>25600000000</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.00099325243715644</v>
+        <v>-0.0009914743351395854</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2839436873190796</v>
+        <v>0.2834353766181874</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0009932594796129895</v>
+        <v>0.0009914813649897604</v>
       </c>
       <c r="E182" t="n">
-        <v>-0.2839437066748314</v>
+        <v>-0.2834353959392885</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.2663618448853268</v>
+        <v>-0.2658850088713319</v>
       </c>
       <c r="G182" t="n">
-        <v>0.6901606679898317</v>
+        <v>0.6889251552154877</v>
       </c>
       <c r="H182" t="n">
-        <v>0.03051728539356775</v>
+        <v>0.03046265391758661</v>
       </c>
       <c r="I182" t="n">
-        <v>0.8606526349285856</v>
+        <v>0.8591119106099242</v>
       </c>
     </row>
     <row r="183">
@@ -5638,28 +5638,28 @@
         <v>25620000000</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.0009960056056589914</v>
+        <v>-0.0009942225749690467</v>
       </c>
       <c r="C183" t="n">
-        <v>0.2865313167133776</v>
+        <v>0.2860183736865368</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0009960102628801682</v>
+        <v>0.0009942272238545955</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.2865310717526358</v>
+        <v>-0.286018129164318</v>
       </c>
       <c r="F183" t="n">
-        <v>-0.2848408994565783</v>
+        <v>-0.2843309825837418</v>
       </c>
       <c r="G183" t="n">
-        <v>0.6721559228378775</v>
+        <v>0.6709526418229674</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.01774256677618965</v>
+        <v>-0.01771080436418216</v>
       </c>
       <c r="I183" t="n">
-        <v>0.8593020315706555</v>
+        <v>0.8577637250770396</v>
       </c>
     </row>
     <row r="184">
@@ -5667,28 +5667,28 @@
         <v>25640000000</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.000998712823138614</v>
+        <v>-0.000996924946040853</v>
       </c>
       <c r="C184" t="n">
-        <v>0.2891146174365625</v>
+        <v>0.2885970498328773</v>
       </c>
       <c r="D184" t="n">
-        <v>0.001003039991281859</v>
+        <v>0.001001244367773251</v>
       </c>
       <c r="E184" t="n">
-        <v>-0.2891135740887656</v>
+        <v>-0.2885960083528639</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.07071506452335201</v>
+        <v>-0.07058847173159576</v>
       </c>
       <c r="G184" t="n">
-        <v>0.8841971564991715</v>
+        <v>0.8826142832168701</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.3384002840962201</v>
+        <v>-0.337794486209858</v>
       </c>
       <c r="I184" t="n">
-        <v>0.6872525947258642</v>
+        <v>0.6860222879301831</v>
       </c>
     </row>
     <row r="185">
@@ -5709,28 +5709,28 @@
         <v>25680000000</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.001003989150780952</v>
+        <v>-0.001002191828100619</v>
       </c>
       <c r="C186" t="n">
-        <v>0.294268277019079</v>
+        <v>0.2937414834299968</v>
       </c>
       <c r="D186" t="n">
-        <v>0.001004119173669989</v>
+        <v>0.001002321618226516</v>
       </c>
       <c r="E186" t="n">
-        <v>-0.2942685465285833</v>
+        <v>-0.2937417524570214</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.2465561754715903</v>
+        <v>-0.246114795198098</v>
       </c>
       <c r="G186" t="n">
-        <v>0.7118173500501622</v>
+        <v>0.7105430678869799</v>
       </c>
       <c r="H186" t="n">
-        <v>-0.5742174396445681</v>
+        <v>-0.5731894862783108</v>
       </c>
       <c r="I186" t="n">
-        <v>0.5429951581273484</v>
+        <v>0.5420230983080522</v>
       </c>
     </row>
     <row r="187">
@@ -5738,28 +5738,28 @@
         <v>25700000000</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.001006558145586819</v>
+        <v>-0.001004756223941036</v>
       </c>
       <c r="C187" t="n">
-        <v>0.2968386580245477</v>
+        <v>0.2963072629872583</v>
       </c>
       <c r="D187" t="n">
-        <v>0.001006574827918702</v>
+        <v>0.001004772876408473</v>
       </c>
       <c r="E187" t="n">
-        <v>-0.2968386513621473</v>
+        <v>-0.2963072563367763</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.2354760183313589</v>
+        <v>-0.2350544735488315</v>
       </c>
       <c r="G187" t="n">
-        <v>0.7166673765089744</v>
+        <v>0.7153844119186994</v>
       </c>
       <c r="H187" t="n">
-        <v>-0.5693857273401476</v>
+        <v>-0.5683664236152027</v>
       </c>
       <c r="I187" t="n">
-        <v>0.544466676952315</v>
+        <v>0.5434919828473835</v>
       </c>
     </row>
     <row r="188">
@@ -5767,28 +5767,28 @@
         <v>25720000000</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.0010090809571889</v>
+        <v>-0.00100727451925181</v>
       </c>
       <c r="C188" t="n">
-        <v>0.2994047544666267</v>
+        <v>0.2988687656512786</v>
       </c>
       <c r="D188" t="n">
-        <v>0.001008824455131978</v>
+        <v>0.001007018476381505</v>
       </c>
       <c r="E188" t="n">
-        <v>-0.2994050967992731</v>
+        <v>-0.2988691073710837</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.2539317507038288</v>
+        <v>-0.2534771668128342</v>
       </c>
       <c r="G188" t="n">
-        <v>0.6893631004510051</v>
+        <v>0.6881290154671494</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.6128395252562095</v>
+        <v>-0.6117424313516577</v>
       </c>
       <c r="I188" t="n">
-        <v>0.5440314473292963</v>
+        <v>0.5430575323640028</v>
       </c>
     </row>
     <row r="189">
@@ -5796,28 +5796,28 @@
         <v>25740000000</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.001011557537281285</v>
+        <v>-0.001009746665813678</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3019665772676656</v>
+        <v>0.3014260023248481</v>
       </c>
       <c r="D189" t="n">
-        <v>0.001010527410854004</v>
+        <v>0.001008718383507448</v>
       </c>
       <c r="E189" t="n">
-        <v>-0.3019674531611625</v>
+        <v>-0.3014268766503381</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.1864682582833771</v>
+        <v>-0.1861344462803101</v>
       </c>
       <c r="G189" t="n">
-        <v>0.760995724413027</v>
+        <v>0.759633404040251</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.4740131050096359</v>
+        <v>-0.4731645355774218</v>
       </c>
       <c r="I189" t="n">
-        <v>0.7008356798703262</v>
+        <v>0.6995810568886814</v>
       </c>
     </row>
     <row r="190">
@@ -5825,28 +5825,28 @@
         <v>25760000000</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.001013987842049776</v>
+        <v>-0.001012172619902915</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3045241373079567</v>
+        <v>0.3039789838687903</v>
       </c>
       <c r="D190" t="n">
-        <v>0.001013987842047606</v>
+        <v>0.001012172619897591</v>
       </c>
       <c r="E190" t="n">
-        <v>-0.3045241373079635</v>
+        <v>-0.3039789838687893</v>
       </c>
       <c r="F190" t="n">
-        <v>-0.2366385400605277</v>
+        <v>-0.236214914153249</v>
       </c>
       <c r="G190" t="n">
-        <v>0.7206750726164091</v>
+        <v>0.7193849335232173</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.5588907330626708</v>
+        <v>-0.557890217281131</v>
       </c>
       <c r="I190" t="n">
-        <v>0.5427060294637224</v>
+        <v>0.541734487237035</v>
       </c>
     </row>
     <row r="191">
@@ -5854,28 +5854,28 @@
         <v>25780000000</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.001016371832260688</v>
+        <v>-0.001014552342333713</v>
       </c>
       <c r="C191" t="n">
-        <v>0.3070774454246769</v>
+        <v>0.3065277211008668</v>
       </c>
       <c r="D191" t="n">
-        <v>0.001018063465154306</v>
+        <v>0.001016240946897745</v>
       </c>
       <c r="E191" t="n">
-        <v>-0.3070833275620851</v>
+        <v>-0.3065335927081869</v>
       </c>
       <c r="F191" t="n">
-        <v>-0.2408410130976521</v>
+        <v>-0.240409864001426</v>
       </c>
       <c r="G191" t="n">
-        <v>0.7151319597498536</v>
+        <v>0.7138517438340354</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.5645637330557989</v>
+        <v>-0.5635530615753824</v>
       </c>
       <c r="I191" t="n">
-        <v>0.5503143193848575</v>
+        <v>0.5493291569392365</v>
       </c>
     </row>
     <row r="192">
@@ -5883,28 +5883,28 @@
         <v>25800000000</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.001018709472861793</v>
+        <v>-0.001016885798130611</v>
       </c>
       <c r="C192" t="n">
-        <v>0.3096265124111551</v>
+        <v>0.309072224795101</v>
       </c>
       <c r="D192" t="n">
-        <v>0.001018709472863136</v>
+        <v>0.001016885798135862</v>
       </c>
       <c r="E192" t="n">
-        <v>-0.3096265124111549</v>
+        <v>-0.3090722247951024</v>
       </c>
       <c r="F192" t="n">
-        <v>-0.234870198224077</v>
+        <v>-0.2344497379694364</v>
       </c>
       <c r="G192" t="n">
-        <v>0.7215522141196765</v>
+        <v>0.7202605047841137</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.5561349819109221</v>
+        <v>-0.5551393994237643</v>
       </c>
       <c r="I192" t="n">
-        <v>0.5428370214020616</v>
+        <v>0.5418652446761352</v>
       </c>
     </row>
     <row r="193">
@@ -5912,28 +5912,28 @@
         <v>25820000000</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.001021000733650275</v>
+        <v>-0.001019172957154843</v>
       </c>
       <c r="C193" t="n">
-        <v>0.3121713490210918</v>
+        <v>0.3116125056859347</v>
       </c>
       <c r="D193" t="n">
-        <v>0.001020938767939086</v>
+        <v>0.00101911110237337</v>
       </c>
       <c r="E193" t="n">
-        <v>-0.31217213817808</v>
+        <v>-0.3116132934301852</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.2140085735442484</v>
+        <v>-0.2136254593817253</v>
       </c>
       <c r="G193" t="n">
-        <v>0.7350478934061346</v>
+        <v>0.7337320243568527</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.540234068939177</v>
+        <v>-0.5392669519703727</v>
       </c>
       <c r="I193" t="n">
-        <v>0.5725831502376557</v>
+        <v>0.571558122545767</v>
       </c>
     </row>
     <row r="194">
@@ -5941,28 +5941,28 @@
         <v>25840000000</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.001023245589221012</v>
+        <v>-0.001021413794021478</v>
       </c>
       <c r="C194" t="n">
-        <v>0.314711965965951</v>
+        <v>0.3141485744656521</v>
       </c>
       <c r="D194" t="n">
-        <v>0.001023508307599774</v>
+        <v>0.001021676042090607</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.3147119037159738</v>
+        <v>-0.3141485123271239</v>
       </c>
       <c r="F194" t="n">
-        <v>-0.2359505490575804</v>
+        <v>-0.2355281547790064</v>
       </c>
       <c r="G194" t="n">
-        <v>0.7215886143634758</v>
+        <v>0.720296839864857</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.5495282806644364</v>
+        <v>-0.5485445253707938</v>
       </c>
       <c r="I194" t="n">
-        <v>0.542696147882917</v>
+        <v>0.5417246233460528</v>
       </c>
     </row>
     <row r="195">
@@ -5970,28 +5970,28 @@
         <v>25860000000</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.001025444019199473</v>
+        <v>-0.001023608288413201</v>
       </c>
       <c r="C195" t="n">
-        <v>0.3172483739170674</v>
+        <v>0.3166804417864919</v>
       </c>
       <c r="D195" t="n">
-        <v>0.001024408877894678</v>
+        <v>0.00102257500020146</v>
       </c>
       <c r="E195" t="n">
-        <v>-0.3172464388687883</v>
+        <v>-0.3166785102023039</v>
       </c>
       <c r="F195" t="n">
-        <v>-0.225228675444356</v>
+        <v>-0.2248254752642229</v>
       </c>
       <c r="G195" t="n">
-        <v>0.7238743107507231</v>
+        <v>0.7225784444410052</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.5375792060350503</v>
+        <v>-0.5366168417522815</v>
       </c>
       <c r="I195" t="n">
-        <v>0.5584881354436585</v>
+        <v>0.5574883403848168</v>
       </c>
     </row>
     <row r="196">
@@ -5999,28 +5999,28 @@
         <v>25880000000</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.001027596008345203</v>
+        <v>-0.001025756425110067</v>
       </c>
       <c r="C196" t="n">
-        <v>0.3197805835058832</v>
+        <v>0.3192081182608664</v>
       </c>
       <c r="D196" t="n">
-        <v>0.001026772479827142</v>
+        <v>0.001024934370856009</v>
       </c>
       <c r="E196" t="n">
-        <v>-0.3197778331431754</v>
+        <v>-0.3192053728218038</v>
       </c>
       <c r="F196" t="n">
-        <v>-0.2269329440126211</v>
+        <v>-0.2265266928826323</v>
       </c>
       <c r="G196" t="n">
-        <v>0.7332296236537099</v>
+        <v>0.7319170096370378</v>
       </c>
       <c r="H196" t="n">
-        <v>-0.5524317377002819</v>
+        <v>-0.5514427846919001</v>
       </c>
       <c r="I196" t="n">
-        <v>0.5532235591100894</v>
+        <v>0.5522331885978196</v>
       </c>
     </row>
     <row r="197">
@@ -6028,28 +6028,28 @@
         <v>25900000000</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.001029701546623758</v>
+        <v>-0.001027858194091695</v>
       </c>
       <c r="C197" t="n">
-        <v>0.322308605324467</v>
+        <v>0.3217316144618715</v>
       </c>
       <c r="D197" t="n">
-        <v>0.001037184918538889</v>
+        <v>0.001035328169417208</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.3223060908501821</v>
+        <v>-0.32172910448895</v>
       </c>
       <c r="F197" t="n">
-        <v>-0.4992776432200174</v>
+        <v>-0.4983838456816313</v>
       </c>
       <c r="G197" t="n">
-        <v>0.5756649576312972</v>
+        <v>0.5746344129454244</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.2051987498319448</v>
+        <v>-0.2048314068515984</v>
       </c>
       <c r="I197" t="n">
-        <v>0.7292149282067781</v>
+        <v>0.7279095012231399</v>
       </c>
     </row>
     <row r="198">
@@ -6057,28 +6057,28 @@
         <v>25920000000</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.001031760629363831</v>
+        <v>-0.001029913590699727</v>
       </c>
       <c r="C198" t="n">
-        <v>0.324832449926113</v>
+        <v>0.3242509409239162</v>
       </c>
       <c r="D198" t="n">
-        <v>0.001031815899692042</v>
+        <v>0.001029968762086276</v>
       </c>
       <c r="E198" t="n">
-        <v>-0.3248322770823047</v>
+        <v>-0.324250768389525</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.2296449456459756</v>
+        <v>-0.2292338395411748</v>
       </c>
       <c r="G198" t="n">
-        <v>0.7243097785191933</v>
+        <v>0.723013132643209</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.5479497298066458</v>
+        <v>-0.5469688004052516</v>
       </c>
       <c r="I198" t="n">
-        <v>0.543206664889202</v>
+        <v>0.5422342264343871</v>
       </c>
     </row>
     <row r="199">
@@ -6086,28 +6086,28 @@
         <v>25940000000</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.001033773257555679</v>
+        <v>-0.001031922615922255</v>
       </c>
       <c r="C199" t="n">
-        <v>0.3273521278255674</v>
+        <v>0.3267661081429178</v>
       </c>
       <c r="D199" t="n">
-        <v>0.00103391368188495</v>
+        <v>0.001032062788867936</v>
       </c>
       <c r="E199" t="n">
-        <v>-0.327337018134792</v>
+        <v>-0.3267510255012319</v>
       </c>
       <c r="F199" t="n">
-        <v>-0.2245594271614635</v>
+        <v>-0.2241574250571272</v>
       </c>
       <c r="G199" t="n">
-        <v>0.7300870740973351</v>
+        <v>0.7287800858143353</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.5417075456472688</v>
+        <v>-0.5407377908877009</v>
       </c>
       <c r="I199" t="n">
-        <v>0.5535043655867614</v>
+        <v>0.5525134923798757</v>
       </c>
     </row>
     <row r="200">
@@ -6115,28 +6115,28 @@
         <v>25960000000</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.001035739437688481</v>
+        <v>-0.00103388527623748</v>
       </c>
       <c r="C200" t="n">
-        <v>0.3298676494996672</v>
+        <v>0.3292771265769679</v>
       </c>
       <c r="D200" t="n">
-        <v>0.001045031981017436</v>
+        <v>0.001043161184227125</v>
       </c>
       <c r="E200" t="n">
-        <v>-0.3298721092202124</v>
+        <v>-0.3292815783138059</v>
       </c>
       <c r="F200" t="n">
-        <v>-0.2252287352124414</v>
+        <v>-0.2248255349252925</v>
       </c>
       <c r="G200" t="n">
-        <v>0.7285234967914747</v>
+        <v>0.727219307595504</v>
       </c>
       <c r="H200" t="n">
-        <v>-0.5389900661108779</v>
+        <v>-0.5380251761325845</v>
       </c>
       <c r="I200" t="n">
-        <v>0.550375078764293</v>
+        <v>0.5493898075484354</v>
       </c>
     </row>
     <row r="201">
@@ -6144,28 +6144,28 @@
         <v>25980000000</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.001037659182049757</v>
+        <v>-0.00103580158390561</v>
       </c>
       <c r="C201" t="n">
-        <v>0.3323790253878451</v>
+        <v>0.3317840066468033</v>
       </c>
       <c r="D201" t="n">
-        <v>0.001046454482253729</v>
+        <v>0.001044581138929496</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.3323773565108099</v>
+        <v>-0.3317823407573607</v>
       </c>
       <c r="F201" t="n">
-        <v>-0.2226423799551223</v>
+        <v>-0.2222438097130031</v>
       </c>
       <c r="G201" t="n">
-        <v>0.7063654590279177</v>
+        <v>0.7051009367384989</v>
       </c>
       <c r="H201" t="n">
-        <v>-0.5141715331838744</v>
+        <v>-0.5132510728810682</v>
       </c>
       <c r="I201" t="n">
-        <v>0.5289347202095508</v>
+        <v>0.5279878311242815</v>
       </c>
     </row>
   </sheetData>

--- a/Periodic_2D/Freq_Swep/mode_data.xlsx
+++ b/Periodic_2D/Freq_Swep/mode_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,1452 +482,4626 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22000000000</v>
+        <v>16000000000</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.003507027389765472</v>
+        <v>-0.003935256324842028</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4649514390665974</v>
+        <v>-0.9458942657170146</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1385223058370142</v>
+        <v>0.003915931228223454</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.807539249344465</v>
+        <v>-1.393751817081362</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0267454394703334</v>
+        <v>0.4437350152250675</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.9540468740162171</v>
+        <v>-1.064227915840184</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4315868640870493</v>
+        <v>-0.4440796556360907</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6411023117861596</v>
+        <v>-1.275698405950637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22100000000</v>
+        <v>16050000000</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.003362297773396688</v>
+        <v>-0.004723202636517544</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.443775855874221</v>
+        <v>-0.9316160178177355</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1359360897439014</v>
+        <v>0.00470176028128593</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8093931966097296</v>
+        <v>-1.400731296143956</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4261488607625741</v>
+        <v>0.4401350011638966</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.6412430295949594</v>
+        <v>-1.061136228770874</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02623019613332404</v>
+        <v>-0.4404762886959581</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.9545798822384188</v>
+        <v>-1.271500600887862</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22200000000</v>
+        <v>16100000000</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.003226521681267609</v>
+        <v>-0.005534577507123744</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4228232645383336</v>
+        <v>-0.9173321684267508</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1334282597041594</v>
+        <v>0.005510929986430589</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8112311920737382</v>
+        <v>-1.407761618946503</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4207327392539087</v>
+        <v>-0.4368962653743252</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6414295088873827</v>
+        <v>-1.267350325494205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0257289146426747</v>
+        <v>0.4365583370370959</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.9551045056012227</v>
+        <v>-1.058042273004741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22300000000</v>
+        <v>16150000000</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.003098359072517667</v>
+        <v>-0.006368615716358899</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4020907820999495</v>
+        <v>-0.9030444281230876</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1309947223606416</v>
+        <v>0.4330059982962392</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.8130515626487256</v>
+        <v>-1.054946778327047</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4153404269117578</v>
+        <v>0.006342680048032291</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6416635404564135</v>
+        <v>-1.414840661731506</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02524098919967116</v>
+        <v>-0.4333405677978146</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.9556209751942234</v>
+        <v>-1.263246425074903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>22400000000</v>
+        <v>16200000000</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.002976789415911086</v>
+        <v>-0.007224404861337322</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.381575181766404</v>
+        <v>-0.888754992530827</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1286317109816285</v>
+        <v>0.4294786994066322</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8148531435744049</v>
+        <v>-1.051850568605855</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4099739571423936</v>
+        <v>0.007196103441236322</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6419466060253003</v>
+        <v>-1.421965820407623</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02476586342893875</v>
+        <v>-0.4298099173034876</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9561295069555085</v>
+        <v>-1.25918765669576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22500000000</v>
+        <v>16250000000</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.002861065882033459</v>
+        <v>-0.008100898746638753</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3612730060043476</v>
+        <v>-0.874466436689647</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1263357690694343</v>
+        <v>0.425976894839773</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8166351397470252</v>
+        <v>-1.048754565026594</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4046354284171414</v>
+        <v>0.008070159675683735</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6422798831380737</v>
+        <v>-1.429134116008363</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02430302288809061</v>
+        <v>-0.4263047752832582</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.9566303039326385</v>
+        <v>-1.255172685933878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22600000000</v>
+        <v>16300000000</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.002750664713505171</v>
+        <v>-0.008996929539205853</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3411806293605473</v>
+        <v>-0.8601816235287248</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1241037238210164</v>
+        <v>0.4225007851613987</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8183970262185662</v>
+        <v>-1.045659788120941</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3993269671357874</v>
+        <v>-0.4228253491230912</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.6426642568828695</v>
+        <v>-1.251200084807925</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02385198919780251</v>
+        <v>0.008963686821109908</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.9571235581034724</v>
+        <v>-1.436342286070462</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22700000000</v>
+        <v>16350000000</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.002645238171876702</v>
+        <v>-0.009911219233599671</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3212942814209043</v>
+        <v>-0.845903623941596</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1219326569122891</v>
+        <v>0.4190503278241694</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.82013847678374</v>
+        <v>-1.042567358387222</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3940506954971534</v>
+        <v>-0.4193716028516489</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.643100336698355</v>
+        <v>-1.247268331089958</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02341231537492966</v>
+        <v>0.00987541284451368</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.9576094518469921</v>
+        <v>-1.44358686443666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22800000000</v>
+        <v>16400000000</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.002544575184022431</v>
+        <v>-0.01084239072688558</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3016100363356001</v>
+        <v>-0.8316356467524446</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1198198762206837</v>
+        <v>0.4156252521243835</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8218593125355527</v>
+        <v>-1.039478495374144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3888087048669032</v>
+        <v>-0.4159432719637805</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.6435884764886823</v>
+        <v>-1.24337580912856</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02298358207008674</v>
+        <v>0.01080396656422058</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9580881591398314</v>
+        <v>-1.450864251190828</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22900000000</v>
+        <v>16450000000</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.002448571484426658</v>
+        <v>-0.01178897864074519</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.282123771173773</v>
+        <v>-0.8173809773669544</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1177628900478296</v>
+        <v>0.4122250776673875</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.8235594645818956</v>
+        <v>-1.036394515174383</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3836030345825748</v>
+        <v>-0.4125398817689905</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.6441287964433916</v>
+        <v>-1.239520812239212</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02256539449490427</v>
+        <v>0.01174788836275274</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.9585598465340213</v>
+        <v>-1.458170773929487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23000000000</v>
+        <v>16500000000</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.002357209972898581</v>
+        <v>-0.01274943993482971</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2628310906516427</v>
+        <v>-0.8031429241847762</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3784356557558917</v>
+        <v>0.408849135604664</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6447212052637091</v>
+        <v>-1.03331682634407</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1157593843429175</v>
+        <v>-0.4091607685314038</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.8252389468191269</v>
+        <v>-1.235701546649751</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02215737988112754</v>
+        <v>0.01270564070506511</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.9590246739610524</v>
+        <v>-1.465502741289395</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>23100000000</v>
+        <v>16550000000</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.002270551828984487</v>
+        <v>-0.01372216430284583</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2437272096855346</v>
+        <v>-0.7889247720448793</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3733084594022257</v>
+        <v>0.4054965918910802</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6453654218268798</v>
+        <v>-1.030246924345884</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1138072029072771</v>
+        <v>-0.4058051026525</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.8268978358793903</v>
+        <v>-1.231916136908039</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02175918535468887</v>
+        <v>0.01367561845610192</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.9594827953984273</v>
+        <v>-1.472856489455433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>23200000000</v>
+        <v>16600000000</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.002188739555079444</v>
+        <v>-0.01470548433042146</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2248067762530805</v>
+        <v>-0.7747297420578418</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3682232481410989</v>
+        <v>0.4021664718060682</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6460609956549702</v>
+        <v>-1.027186384662976</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002188739555073073</v>
+        <v>-0.4024719131413192</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2248067762530793</v>
+        <v>-1.228162632609285</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1119043303330601</v>
+        <v>0.01465615897661632</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8285362562219103</v>
+        <v>-1.480228422290457</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>23300000000</v>
+        <v>16650000000</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.002112014759084444</v>
+        <v>-0.01569768540020044</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2060636023179842</v>
+        <v>-0.7605609572375677</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3631817307186837</v>
+        <v>0.3988576850387955</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6468073258307186</v>
+        <v>-1.024136854784228</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1100488773422889</v>
+        <v>-0.3991601126717706</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.8301543689422992</v>
+        <v>-1.224439016247289</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002112014759090943</v>
+        <v>0.01564555198194157</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2060636023179854</v>
+        <v>-1.487615045670218</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>23400000000</v>
+        <v>16700000000</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.002040756810299685</v>
+        <v>0.02681131877086631</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1874902442766726</v>
+        <v>-0.8505973711524106</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002040756810299361</v>
+        <v>-0.00510223434142714</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1874902442766777</v>
+        <v>-0.8693175487954884</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3581855186820942</v>
+        <v>0.03223682648715018</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6476036782219982</v>
+        <v>-0.8414037571963234</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1082390681891168</v>
+        <v>-0.01580443444845102</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.831752363286561</v>
+        <v>-0.8692777766230669</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>23500000000</v>
+        <v>16750000000</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.001975555211503879</v>
+        <v>-0.01770169393691599</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1690773240355688</v>
+        <v>-0.7323139545911987</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3532361246353735</v>
+        <v>0.3922993217275256</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.6484492010244073</v>
+        <v>-1.018077720288235</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001975555211506963</v>
+        <v>-0.3925958973273063</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1690773240355692</v>
+        <v>-1.217073094958999</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1064732298092447</v>
+        <v>0.0176438736496107</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8333304501530977</v>
+        <v>-1.502419067512611</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>23600000000</v>
+        <v>16800000000</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.001917342868974219</v>
+        <v>-0.01870992212325629</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1508123787866907</v>
+        <v>-0.7182412531129656</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001917342868981648</v>
+        <v>0.3890472081878588</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1508123787866912</v>
+        <v>-1.015071687413801</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3483349616300181</v>
+        <v>-0.3893409477452242</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6493429387341887</v>
+        <v>-1.213426501326091</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1047497824405981</v>
+        <v>0.01864922924054376</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.8348888570663555</v>
+        <v>-1.509830226681311</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>23700000000</v>
+        <v>16850000000</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.001867650671949388</v>
+        <v>-0.01971989135479659</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1326778008129282</v>
+        <v>-0.704205792686101</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001867650272570621</v>
+        <v>0.3858113992072849</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1326778005381848</v>
+        <v>-1.012083787674984</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3434931364726934</v>
+        <v>-0.3861023630981963</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.6502992807588852</v>
+        <v>-1.209801238073797</v>
       </c>
       <c r="H19" t="n">
-        <v>0.102336349344001</v>
+        <v>0.01965630971385716</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.8368661898425975</v>
+        <v>-1.517243634532772</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>23800000000</v>
+        <v>16900000000</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.001829128883352416</v>
+        <v>-0.02072979285624319</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1146468848698458</v>
+        <v>-0.6902098552714265</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001829128883349131</v>
+        <v>0.38259058318943</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1146468848698346</v>
+        <v>-1.00911588529686</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3386824848292477</v>
+        <v>-0.3828788313122047</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6512707924996285</v>
+        <v>-1.206195093143276</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1014241603749289</v>
+        <v>0.02066330809176428</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.8379476015361398</v>
+        <v>-1.524656657012139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>23900000000</v>
+        <v>16950000000</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.001806727860996967</v>
+        <v>-0.02173782710606022</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.09667554783284693</v>
+        <v>-0.6762555105513592</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001806727861006347</v>
+        <v>0.3793834662083097</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09667554783285184</v>
+        <v>-1.006169857775232</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3339335035852207</v>
+        <v>-0.3796690574389001</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.6523025861131513</v>
+        <v>-1.202605845233956</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09981922439092704</v>
+        <v>0.02166842610967196</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.8394484458948368</v>
+        <v>-1.532066875992945</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>24000000000</v>
+        <v>17000000000</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.00181077809880122</v>
+        <v>-0.02274221358872</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.07868280815909846</v>
+        <v>-0.6623446079051379</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001810778098799254</v>
+        <v>0.3761887884623307</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07868280815910519</v>
+        <v>-1.003247586269886</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3292374209733939</v>
+        <v>-0.376471780175797</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6533779693896672</v>
+        <v>-1.199031273300313</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0982511451098597</v>
+        <v>0.02266988394543091</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.8409306194671391</v>
+        <v>-1.539472097243485</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24100000000</v>
+        <v>17050000000</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.001866908522353742</v>
+        <v>-0.02374120093048674</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.06049623102742912</v>
+        <v>-0.6484787705308679</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001866908522353711</v>
+        <v>0.3730053387741648</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06049623102743002</v>
+        <v>-1.00035094645496</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3245951637805878</v>
+        <v>-0.3732857864346956</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.6544956346040609</v>
+        <v>-1.195469165603565</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09671870555436012</v>
+        <v>0.02366593034747697</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.8423943879647015</v>
+        <v>-1.546870356209488</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>24200000000</v>
+        <v>17100000000</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.002061750118853246</v>
+        <v>-0.02473307750827849</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04165089846755955</v>
+        <v>-0.6346593914415667</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002061750118852818</v>
+        <v>0.3698319671551872</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04165089846755649</v>
+        <v>-0.9974817998993999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3200075659703173</v>
+        <v>-0.3701099239740678</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.6556542304175078</v>
+        <v>-1.191917328243842</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09522074584050771</v>
+        <v>0.02465485318644298</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.8438400193707037</v>
+        <v>-1.554259921977048</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24300000000</v>
+        <v>17150000000</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.003047317182173053</v>
+        <v>-0.02571618260144565</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02005116136653696</v>
+        <v>-0.6208876311047241</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003047317182179076</v>
+        <v>0.3666675955022196</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02005116136654555</v>
+        <v>-0.9946419860276663</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3154753705781467</v>
+        <v>-0.3669431121618669</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.6568523692637668</v>
+        <v>-1.188373593122441</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09375615928340331</v>
+        <v>0.0256349903767716</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.8452677828755136</v>
+        <v>-1.561639299604734</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24400000000</v>
+        <v>17200000000</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.01944530339374622</v>
+        <v>-0.03049135902909433</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.001978047471398165</v>
+        <v>-0.7455213193026011</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01944530339374958</v>
+        <v>0.02492634882019889</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001978047471407838</v>
+        <v>-0.7540755128658634</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3113569237390559</v>
+        <v>0.03732630734505124</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.6584665224819241</v>
+        <v>-0.7442760287429012</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04868992672865797</v>
+        <v>0.03963246209296042</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.8423149455552534</v>
+        <v>-0.7135402921805436</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24500000000</v>
+        <v>17250000000</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.02424025307299471</v>
+        <v>-0.02764976102522241</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0007345542375600787</v>
+        <v>-0.593490441643832</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02424025307299657</v>
+        <v>0.3603619510201664</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0007345542375433535</v>
+        <v>-0.9890575592979959</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3065797168939748</v>
+        <v>-0.360632728284404</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.6593615855253823</v>
+        <v>-1.181301929818329</v>
       </c>
       <c r="H27" t="n">
-        <v>0.09092292420024375</v>
+        <v>0.02756258330352556</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.8480707838699466</v>
+        <v>-1.576362693008744</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>24600000000</v>
+        <v>17300000000</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.01618614171698096</v>
+        <v>-0.02859727617853076</v>
       </c>
       <c r="C28" t="n">
-        <v>6.265291763453996e-05</v>
+        <v>-0.5798661687898465</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01618614171698194</v>
+        <v>0.3572189535830311</v>
       </c>
       <c r="E28" t="n">
-        <v>-6.265291763489789e-05</v>
+        <v>-0.9863164506391842</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3022173090255905</v>
+        <v>-0.3574874257147758</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6606697664476551</v>
+        <v>-1.177769857797661</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08955229838803254</v>
+        <v>0.02850707410658628</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.8494465586164256</v>
+        <v>-1.583704899622716</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>24700000000</v>
+        <v>17350000000</v>
       </c>
       <c r="B29" t="n">
-        <v>0.000749042712928554</v>
+        <v>-0.02953013005649081</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.02420280546064056</v>
+        <v>-0.5662918312533417</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0007490427129186196</v>
+        <v>0.3540815169502597</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02420280546060866</v>
+        <v>-0.983611671128074</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2979221494765736</v>
+        <v>-0.3543477229407467</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6620213259783239</v>
+        <v>-1.1742376121729</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6218974570165781</v>
+        <v>0.02943687720338442</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.5283282897320257</v>
+        <v>-1.591033295006716</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>24800000000</v>
+        <v>17400000000</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0007643077050005792</v>
+        <v>-0.03044710486515539</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.04404331934181586</v>
+        <v>-0.5527674366503845</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0007643077050004529</v>
+        <v>0.3509490250270215</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04404331934175841</v>
+        <v>-0.98094484967078</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0486770447338017</v>
+        <v>-0.3512130008038042</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5829533253049211</v>
+        <v>-1.170703252768756</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3493462531183804</v>
+        <v>0.0303507689006711</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.638890774011214</v>
+        <v>-1.598347552123598</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>24900000000</v>
+        <v>17450000000</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0007757474797073449</v>
+        <v>-0.03134711330009723</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.06152855797273518</v>
+        <v>-0.5392927710764176</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0007757474796946138</v>
+        <v>0.3478209647696657</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06152855797260899</v>
+        <v>-0.9783175569757976</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2894764044065524</v>
+        <v>-0.3480827432230338</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6647909056119141</v>
+        <v>-1.167164900953516</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.2894771428451668</v>
+        <v>0.03124765451423811</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6647902604039668</v>
+        <v>-1.605647569845604</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>25000000000</v>
+        <v>17500000000</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0007732782877142034</v>
+        <v>-0.03222921385064978</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.07816092208111215</v>
+        <v>-0.5258674038682936</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0007732782877480175</v>
+        <v>0.3446969270125064</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07816092208119452</v>
+        <v>-0.9757313013097303</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4717158767584888</v>
+        <v>-0.3449565380537971</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.824654253952056</v>
+        <v>-1.163620743847304</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.4661773901139232</v>
+        <v>0.03212659153282178</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8165321334071318</v>
+        <v>-1.612933453605295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>25100000000</v>
+        <v>17550000000</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.0007622196183044201</v>
+        <v>-0.03309262666351936</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09431780874863643</v>
+        <v>-0.5124906928372537</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0007622196183008059</v>
+        <v>0.3415766063591484</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.09431780874860178</v>
+        <v>-0.9731875246550838</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2812731885852546</v>
+        <v>-0.3418340770065219</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6676876304242686</v>
+        <v>-1.160069038130735</v>
       </c>
       <c r="H33" t="n">
-        <v>0.281273188585329</v>
+        <v>0.03298677137521641</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.6676876304243862</v>
+        <v>-1.620205568302979</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>25200000000</v>
+        <v>17600000000</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0007460554447227505</v>
+        <v>-0.03393675000253314</v>
       </c>
       <c r="C34" t="n">
-        <v>0.110146494240832</v>
+        <v>-0.4991617898022333</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0007460554447236524</v>
+        <v>0.3384598002234333</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.1101464942407701</v>
+        <v>-0.9706875992302266</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.04096323023172502</v>
+        <v>-0.3387151547101162</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6627613357037949</v>
+        <v>-1.156508113492995</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.2863917487874205</v>
+        <v>0.03382760447833281</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6732725726013905</v>
+        <v>-1.627464428605579</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>25300000000</v>
+        <v>17650000000</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.0007268606926471815</v>
+        <v>-0.03476117738141052</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1257181130270927</v>
+        <v>-0.485879646239369</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0007268606926479049</v>
+        <v>0.3353464071110056</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1257181130270784</v>
+        <v>-0.9682328243411961</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2733034791759261</v>
+        <v>-0.3355996670124174</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6706899964584253</v>
+        <v>-1.15293637574958</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.5979667914531615</v>
+        <v>0.0346486485089989</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5288342356369794</v>
+        <v>-1.634710762213252</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>25400000000</v>
+        <v>17700000000</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0007059022704507334</v>
+        <v>-0.03556571550593351</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1410720139553831</v>
+        <v>-0.4726430188421386</v>
       </c>
       <c r="D36" t="n">
-        <v>0.000705902270453343</v>
+        <v>0.3322364242258196</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.1410720139553524</v>
+        <v>-0.9658244235409282</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2694060466506032</v>
+        <v>-0.3324876086012612</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6722272447414358</v>
+        <v>-1.149352309653554</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.5928931905394207</v>
+        <v>0.03544966365383906</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5290434538878103</v>
+        <v>-1.641945556665832</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>25500000000</v>
+        <v>17750000000</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.0006839806251923608</v>
+        <v>-0.03635040323967296</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1562322074931243</v>
+        <v>-0.4594504747587023</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0006839806251999527</v>
+        <v>0.3291299444586749</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.1562322074931188</v>
+        <v>-0.9634635420729883</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2655667105986754</v>
+        <v>-0.3293790700046815</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6737866668978741</v>
+        <v>-1.14575448142189</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.5878389241381174</v>
+        <v>0.03623079596905498</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5292530005898503</v>
+        <v>-1.649169843616515</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>25600000000</v>
+        <v>17800000000</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.000661616529384255</v>
+        <v>-0.03711553190073898</v>
       </c>
       <c r="C38" t="n">
-        <v>0.17121451352779</v>
+        <v>-0.4463003962568884</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0006616165293873845</v>
+        <v>0.3260271528381096</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.1712145135277832</v>
+        <v>-0.9611512445889554</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.2617852621616121</v>
+        <v>-0.3262742340501587</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6753668901271106</v>
+        <v>-1.142141540991212</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.5828031283256825</v>
+        <v>0.03711435489965806</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5294640355408854</v>
+        <v>0.4463003862671589</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>25700000000</v>
+        <v>17850000000</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.0006391564274105553</v>
+        <v>-0.03786166732173642</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1860300338540591</v>
+        <v>-0.4331909845386958</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0006391564274170133</v>
+        <v>0.3229283224891032</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.1860300338540655</v>
+        <v>-0.958888513131286</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2580614402118212</v>
+        <v>-0.3231733718295226</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6769665680515975</v>
+        <v>-1.138512224004495</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.5777850082240291</v>
+        <v>0.03786166732176555</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5296777177338559</v>
+        <v>0.433190984538693</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>25800000000</v>
+        <v>17900000000</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.0006168343011594522</v>
+        <v>-0.03858967425552932</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2006869859266192</v>
+        <v>-0.4201202624160255</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0006168343011640318</v>
+        <v>0.3198338101584894</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.2006869859266065</v>
+        <v>-0.9566762453783586</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2543949345356145</v>
+        <v>-0.3200768382375858</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6785843827883771</v>
+        <v>-1.134865353552701</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.5727838368351288</v>
+        <v>0.03859027076492758</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5298952032595734</v>
+        <v>0.4201229486132448</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>25900000000</v>
+        <v>17950000000</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.0005948094357664843</v>
+        <v>-0.03930074390042322</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2151917365045065</v>
+        <v>-0.4070860755408574</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0005948094357669416</v>
+        <v>0.3167440513638726</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.2151917365045042</v>
+        <v>-0.9545152531561115</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2507853889919545</v>
+        <v>-0.3169850670723815</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6802190467474598</v>
+        <v>-1.13119984156557</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.5677989534331547</v>
+        <v>0.03930070954167265</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5301176436700168</v>
+        <v>0.4070861063220965</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>26000000000</v>
+        <v>18000000000</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0005731902860586027</v>
+        <v>-0.03999642556119894</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2295494157835655</v>
+        <v>-0.3940860918842937</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0005731902860537884</v>
+        <v>0.3136595552006225</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.2295494157835595</v>
+        <v>-0.9524062612228977</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2472324046298762</v>
+        <v>-0.3138985659428112</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6818693042019883</v>
+        <v>-1.127514690141159</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.5628297643832167</v>
+        <v>0.03999643749295586</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5303461820488439</v>
+        <v>0.3940862022322323</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>26100000000</v>
+        <v>18050000000</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.000552050023580509</v>
+        <v>-0.04067866377072476</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2437642985089423</v>
+        <v>-0.3811177991602557</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0005520500235811991</v>
+        <v>0.310580898872269</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.2437642985089315</v>
+        <v>-0.9503499063340326</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.2437355427626835</v>
+        <v>-0.3108179107035808</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6835339325471872</v>
+        <v>-1.123808992297496</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.5578757381755833</v>
+        <v>0.04067875032590799</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5305819558091684</v>
+        <v>0.3811178678646235</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>26200000000</v>
+        <v>18100000000</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.000531436934678237</v>
+        <v>-0.04134984259267625</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2578400493201916</v>
+        <v>-0.3681784999317825</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2402943279576699</v>
+        <v>0.3075087219745375</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6852117434104185</v>
+        <v>-0.9483467365999587</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0005314369346822938</v>
+        <v>-0.3077437397574622</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.2578400493201919</v>
+        <v>-1.120081932648883</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.552936406378678</v>
+        <v>0.0413498157993386</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5308260870359525</v>
+        <v>0.3681785184430534</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>26300000000</v>
+        <v>18150000000</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.0005113815356582527</v>
+        <v>-0.04201283934559565</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2717798857405334</v>
+        <v>-0.3552653041957757</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2369082509921522</v>
+        <v>0.3044437205900096</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6869015835109399</v>
+        <v>-0.9463972111496154</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0005113815356562646</v>
+        <v>-0.3046767480069117</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.2717798857405363</v>
+        <v>-1.116332787581492</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.548011364021663</v>
+        <v>0.04201270080083524</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5310796904023228</v>
+        <v>0.3552652081962359</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>26400000000</v>
+        <v>18200000000</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.0004919015387413213</v>
+        <v>-0.042671090667129</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2855866894550114</v>
+        <v>-0.3423751193728267</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2335767716799484</v>
+        <v>0.3013866412297411</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6886023352996311</v>
+        <v>-0.944501700107665</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0004919015387421687</v>
+        <v>-0.3016176816411407</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.2855866894550123</v>
+        <v>-1.112560926224281</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.06917213444432634</v>
+        <v>0.04267111912825255</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8715840926820736</v>
+        <v>0.3423751818251843</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>26500000000</v>
+        <v>18250000000</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0004730057673002259</v>
+        <v>-0.04332867474336354</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2992630869103625</v>
+        <v>-0.3295046378529362</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2314254114945673</v>
+        <v>0.2983382746895558</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6923831144078798</v>
+        <v>-0.9426604848953807</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.5386850000474414</v>
+        <v>-0.2985673303079207</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5292084288810157</v>
+        <v>-1.108765807744691</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.07003992093991042</v>
+        <v>0.04332867316734739</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8722701303688174</v>
+        <v>0.329504632717972</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>26600000000</v>
+        <v>18300000000</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.0004546947462048782</v>
+        <v>-0.04399041474122036</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3128114910504262</v>
+        <v>-0.3166503226200084</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2270753069674988</v>
+        <v>0.295299449830548</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6920322851196818</v>
+        <v>-0.9408737588761432</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5333188072513833</v>
+        <v>-0.2955265222224218</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5319082287183101</v>
+        <v>-1.104946983467778</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.06732022371632715</v>
+        <v>0.04399041449270263</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8737699141410527</v>
+        <v>0.3166503222798642</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>26700000000</v>
+        <v>18350000000</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.0004369664516180339</v>
+        <v>-0.04466201012268266</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3262341695751785</v>
+        <v>-0.3038083921238058</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2239041107781828</v>
+        <v>0.2922710273698229</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6937594301644724</v>
+        <v>-0.9391416283221873</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.528448046516206</v>
+        <v>-0.2924961180547386</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5322105312817357</v>
+        <v>-1.101104094177834</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.06641975076565973</v>
+        <v>0.0446620102468805</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8748445753678461</v>
+        <v>0.3038083922055312</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26800000000</v>
+        <v>18400000000</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.0004198137765571084</v>
+        <v>-0.04535020475032949</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3395332472317626</v>
+        <v>-0.2909748066369826</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2207850956842516</v>
+        <v>0.2892535078026691</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6954933810624921</v>
+        <v>-0.9374641437780166</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.5235904221396027</v>
+        <v>-0.2894751595293046</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5325276200556716</v>
+        <v>-1.097237547230646</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.06553569910880351</v>
+        <v>0.04535085444603369</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8759073354699627</v>
+        <v>0.2909732735357688</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26900000000</v>
+        <v>18450000000</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.0004032274919594137</v>
+        <v>-0.04606300374197253</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3527107423268128</v>
+        <v>-0.2781452601267415</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2177176061358988</v>
+        <v>0.2862489547915874</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6972332028158273</v>
+        <v>-0.935841151500626</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.5187458694386742</v>
+        <v>-0.2864700852828753</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5328604971615063</v>
+        <v>-1.093345125414932</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.0646676608477741</v>
+        <v>0.04606300393897522</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8769583890706507</v>
+        <v>0.2781452601763624</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>18500000000</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.04680995519150266</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.265315184669829</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2832571302435252</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.9342725959034205</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.2834762814987818</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1.089428762023407</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.04680995520510411</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.265315184686813</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>18550000000</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.04760251853042362</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.2524797794985214</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2802793474271462</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.9327582213709313</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.2804965205088722</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.085487764557454</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.04760251844428059</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.2524797794048037</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>18600000000</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.0484545488726113</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.239634085311664</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.2773165359445532</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.9312977251476179</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.04845454887654777</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.2396340853202719</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.2775317318361488</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-1.081522195157563</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>18650000000</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.04938293649832914</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.2267731390609269</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.2743696223290422</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.9298907301527807</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.04938293649815674</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.2267731390609249</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.2745828428893589</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.077532195372184</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>18700000000</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.005564917779089467</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0.4095200831362054</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.01838702559915603</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.3840365496004854</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.02014479692091146</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.3945479018998756</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.01377642848858262</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.3747028806702971</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>18750000000</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.05155686348751799</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.2009876355329406</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.05155686348753068</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2009876355329367</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.2685271484739714</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.9272353835584386</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.2687364232389359</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-1.069479828883433</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>18800000000</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.05286038447361363</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.1880571866439889</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.05286038447349006</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.1880571866444328</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.2656333812789484</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.9259859361147311</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.2658406866022476</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.065418095730346</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>18850000000</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.009953111178287167</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.3300804056237411</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.02323669893231689</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.3452957211120187</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.02838618263481985</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.3470854936731686</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.01774050324037549</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.3368867977295754</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>18900000000</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.05610525419429807</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.1621308869900162</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.05610525530469892</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.1621308871021409</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.2599074246507715</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.9236410931492047</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.2601082718800626</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-1.057222832742295</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>18950000000</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.0581612965977627</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.1491619083880266</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0581612938231903</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1491619081518459</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.2570767205046345</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.9225493006061267</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.2572698277135957</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-1.053071405716664</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>19000000000</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.06060541362823916</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0.1362338753126267</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.06060541370421114</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1362338750659066</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.2542772972331515</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.9214898439418741</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.2544441746586116</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.048956530057323</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>19050000000</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.06352747344260801</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.1234171118283418</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.06352747537645935</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.1234171127220429</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.2514673913787167</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.9204474618911478</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.2516512767078236</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-1.044734650775418</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>19100000000</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.06701933443401935</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.1108305391171503</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.06701933443403853</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.1108305391171529</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.2487081275833323</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.9195407809789611</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.2489037208035288</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-1.040579560069608</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>19150000000</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.0711493041507273</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.09865761737980741</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.07114930415071039</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.09865761737980901</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.2459672506960033</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.9186342455844431</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.2461608915123104</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-1.036367334056904</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>19200000000</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.07591713053408075</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.08714616315886509</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.07591713053406265</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.08714616315887003</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.2432510389505689</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.9177731953213585</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.243442752564979</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-1.032136257678819</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>19250000000</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.08120394797378581</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.07656942932665585</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.08120394791777308</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.07656942945872236</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.2404342542229032</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.9170092366575862</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.2408598842457815</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-1.027876717675165</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>19300000000</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.08675853013930393</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.06714585643001451</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.08675853013932133</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.06714585643001718</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.2378949404183535</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.9161836433350063</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.2380828257082913</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-1.0236206224759</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>19350000000</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.09225167903756637</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0.05896405194769689</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.09225167903670163</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.05896405194804958</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.2351411153520558</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.9154199805747564</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.2355192328924937</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-1.01917874747841</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>19400000000</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.09736756933877952</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.051971054975709</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.09736756933916216</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.05197105497500362</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.2330808068212735</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.9140124130743529</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.232706657183365</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-1.014939162448389</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>19450000000</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.1018668284424378</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.04602181107111761</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.1018668284420035</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.04602181107101862</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.2299315339530351</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.9139704531647818</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.2302263992806885</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-1.010676032794346</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>19500000000</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.1055972370270305</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.04094063662172737</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.1055972370270209</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.04094063662172532</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.2275018890490819</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.9135062259944557</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.2276822276053858</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-1.006398259516289</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>19550000000</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.1084731593480154</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.03656110632214678</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.1084731593480163</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.03656110632214599</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.2249724479534567</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.9129353176168498</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-0.2251510548981203</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-1.002057784671783</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>19600000000</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.1104490013466232</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.03274208718635429</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.1104490013476529</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.03274208718764601</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.2245588265546745</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-0.9146236491988377</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.2222127493920414</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.9981755953747756</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>19650000000</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.1114979612081509</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.02936974359470475</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.1114979612080773</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.02936974359465934</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.2231538099826981</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.9092157697526457</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.2202277328632385</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-0.9933056199100075</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>19700000000</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.1115973789314468</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.0263538413178298</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.1115973789314653</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.02635384131782856</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.2175543938384918</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.9114434133099365</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.2177286991044445</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-0.9889664148979656</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>19750000000</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.1107185791471808</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.02362266918416317</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.1107185791471471</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.02362266918416401</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.215236593006922</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.9109351975408766</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.2153477929953336</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.9846487006412662</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>19800000000</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.1088186771674367</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.02111823363329298</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.1088186771674408</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.02111823363329158</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.2117741940430029</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.9097555201576476</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.2128508605574205</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-0.9801738414995173</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>19850000000</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.1058319594353642</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0.01879209769282868</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.1058319594353702</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.01879209769283516</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.2107575890069774</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-0.9106823248633057</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-0.210524496026153</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-0.9757961642736768</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>19900000000</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.1016580900972794</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0.01660167720570853</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.1016580900972973</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.01660167720570766</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.2079305948583854</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.910010977817134</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.2084827773695067</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-0.9714825105843167</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>19950000000</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.09614269769025101</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0.0145064733732826</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.09614269769028333</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.01450647337328172</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.2071215300582255</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-0.9108348972472996</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.206058134322483</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.9668128838116816</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>20000000000</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.08904085284266537</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-0.01246320187155587</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.08904085284268005</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.01246320187155448</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.2079179686449541</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.8627065677396333</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-0.1995878197164622</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-0.9602354617989082</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>20050000000</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.07993847690118745</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-0.0104172815267363</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.07993847690119417</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.01041728152673632</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.2337800629269114</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.8818159612824747</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-0.000164907779349991</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.7647833944231376</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>20100000000</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.06804914681597111</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.00828245996587303</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.06804914681596845</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.008282459965873974</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.1965732342776198</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.9104009422609842</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.1990765438361684</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.9538332906162234</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>20150000000</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.05149512654107768</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-0.00586921707243672</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.05149512654107367</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.005869217072439384</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1643831335872371</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.8555696981299135</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-0.1910247544910436</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.9460428256204898</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>20200000000</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.02134151053421807</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.002271438933928361</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.02134151053420771</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.002271438933927397</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.1947128868546064</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.9085240238232113</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-0.1948686286020738</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.9448309231125523</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>20250000000</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.004472757735439233</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0.04422550660460578</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.004472757735493381</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.04422550660461024</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.06467664673224369</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.6751923247192759</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-0.1743808796403213</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.951810346212853</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>20300000000</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.006454037499446653</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0.06767499671179068</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.006454037499414285</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0676749967117966</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.1860817298527122</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.8948609565156773</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-0.1592585032143638</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.8745180965787767</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>20350000000</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.007764832224558237</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.0861049213306357</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.007764832224546222</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.08610492133064174</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1884251656884404</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.9081651311196209</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.1885760654029647</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-0.9315242236876629</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>20400000000</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.008737347192937195</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.1022534298115478</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.008737347192965934</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.1022534298115671</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.2259325663710355</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.8887602475472167</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.2502736174759206</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.8638340912702651</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>20450000000</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.00949500699303853</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.117057158729925</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.009495006993135562</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0.1170571587298493</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.1875113109953254</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.9160651273293724</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.1887728399038886</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-0.9165272393899058</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>20500000000</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.01010121877164817</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1309626375011619</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.01010121877167572</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.1309626375011777</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.1829079178046304</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.9173737745278731</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.182489117411973</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.9175668404148899</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>20550000000</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.01059411022947833</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1442204819362883</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.01059411022947659</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.1442204819362797</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.1790948045154592</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.8706836732664247</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.1582618408989246</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-0.8267775653410194</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>20600000000</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.01099888314315266</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.1569861312457326</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.01099888314315034</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.1569861312457326</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.1969884426483959</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.9019543552642266</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-0.2261566527076783</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.9235293586744219</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>20650000000</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.01133328285240843</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.1693627999070404</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.01133328285240115</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0.1693627999070334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.1767480285588159</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.9049405395030101</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-0.1766341985634702</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.9080614729324802</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>20700000000</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.01161038224909414</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.1814225293453383</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.01161038224916615</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.1814225293454825</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.06685820745870297</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.8761943352157211</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.1699929840173157</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.891919261883044</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>20750000000</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.01184014423968957</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.1932175643332614</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.01184014423965452</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.1932175643333433</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1726061918087309</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.8968141688819041</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-0.205672301247638</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.9188956868465876</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>20800000000</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.01203036461777416</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.2047869644655177</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.01203036461775124</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.2047869644655165</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.1710602323175069</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.9081787425716573</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.171197628963007</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.891695276203131</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>20850000000</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.01218727386226967</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.2161606695247023</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.01218727386319074</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.2161606695243579</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.1693788797546492</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.8872493752621656</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.1668864460858733</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.9075899198472981</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>20900000000</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.01231593879602563</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.2273621147679726</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.01231593879604131</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.227362114767975</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1676295068033956</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.8828934527159127</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-0.1675354021677449</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.9085274671371036</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>20950000000</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>21000000000</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.01250457335516239</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.2493193761524223</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.01250457344915138</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.2493193761686462</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.16414397855007</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.8741035406646525</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-0.1649714366040295</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.9087473988149527</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>21050000000</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.01257098907615531</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.2601027266272021</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.01257098937624006</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0.2601027269898952</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1624602891792127</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.8697930473416849</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-0.1581316717746777</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.908031377405368</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>21100000000</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.01262230677438224</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.2707703507077689</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.01262230677437755</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.2707703507077717</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1607821666187076</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.8653630120739092</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-0.1606528816103812</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9089100482554031</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>21150000000</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.01266069542855398</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.2813309328223209</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.01266069542864848</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.2813309328223618</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.1591307415381575</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.8609991767947275</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-0.1590127373723279</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.9090803659196692</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>21200000000</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.01268803862157086</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.2917918600345563</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.01268803862157287</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.2917918600346366</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1575023456776438</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.8566430947604279</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-0.1573621414410651</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.9092584289683626</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>21250000000</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.0127059856112</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.3021594819430278</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.01270599251897454</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.3021594744143838</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.1559199861751573</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.8522760156327013</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-0.1583346638268891</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.9108745528356506</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>21300000000</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.01271599233923774</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.3124393118856317</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.01271591374520315</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.3124392447636842</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.1542067782527609</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.8479405481045841</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-0.1572602237978784</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.9110707563180709</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>21350000000</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.01271935487869666</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.3226361848225198</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.01271935487892303</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0.3226361848225405</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.1527518207042532</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.8436242395002068</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-0.1526286867978325</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.9098636949218926</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>21400000000</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.0127172371545165</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.3327543828260045</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.01271723715448834</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.3327543828259595</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.1512118421504965</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.8393014719342116</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-0.1510899081093652</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.9100877130656649</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>21450000000</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.01271069431496056</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.3427977360698326</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.01271069432066981</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-0.3427977360708475</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.1496929654448693</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.8349872684519191</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-0.1495721510380734</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.9103222275859933</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>21500000000</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.01270069281251828</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.3527697051187295</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.1481948000476357</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.8306816449383129</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.01270069236044188</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.3527697050997702</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-0.1480748122269555</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.9105675101630288</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>21550000000</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.01268812803037658</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.3626734488362299</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.01268932029272333</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.3626743266963743</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.1467071461689912</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.8263763156745801</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-0.1459480313159784</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.9108187892673496</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>21600000000</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.01267384013623087</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.3725118811782748</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.1452591018043633</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.8220959574834728</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.1451412911271424</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.9110876144939181</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.01267383711795625</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-0.3725118822419938</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>21650000000</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.0126586287430997</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.3822877193717138</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.1438208429470345</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.8178156747885889</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.1437043798799582</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.9113631817209215</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0126586282908239</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-0.3822877192793748</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>21700000000</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.01264326689194825</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.3920035254291719</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.007746575016466573</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.1808276476352321</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.07017282002311602</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.1986984590434094</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.1254152784520635</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.275482675327989</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>21750000000</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.0126285148408645</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.4016617425290723</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.1410018543050265</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.8092792528741487</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.1408873528981634</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.9119453865522659</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.01262851389417633</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-0.4016617428691236</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>21800000000</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.01261513414282513</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.4112647274894063</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.1396205420978812</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.8050225297770397</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.1395069790019286</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.9122523286467865</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.01261513489804592</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-0.411264718474593</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>21850000000</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.01260390252032755</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4208147803268606</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.1382547034957978</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.8007725955256332</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.1379770619403876</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.9129746073787205</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.01114898705579523</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.4205388208498724</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>21900000000</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.01259563010121812</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.4303141717088956</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.1369131176847544</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.7965300547317207</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.1368013138209977</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.9128992757931661</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.01259562385171634</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-0.430314165507884</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>21950000000</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.01259117766792591</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.4397651689586804</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.1355866960907877</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.7922932554085259</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0.1354757057245591</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.913240074003576</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.0125911924026394</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-0.4397651374987515</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>22000000000</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.01259147770130272</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.4491700611378913</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.1342783783693767</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.7880618960372821</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.1341681507902891</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.9135931120248584</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-0.6176630334839815</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.8225924188527552</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>22050000000</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.01259755917624114</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.4585311835990765</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.1329882096217262</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.7838352092882694</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.1328786893338804</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.9139590346275134</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-0.6148311817022122</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.8220359105325248</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>22100000000</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.01261057730082055</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.4678509422426902</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.1317163510584107</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.7796123142095261</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.1316074742223518</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.9143386042640752</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-0.6120256457790377</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.8214764908948884</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>22150000000</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.01263184970099694</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.4771318375091974</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.130463108325216</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.7753922066394695</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.1303548036095881</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.9147327062208296</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-0.6092383117959288</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.8209273310829504</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>22200000000</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.01266290095111511</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.4863764878412044</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.08475065713492991</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.4468054141961288</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.07484241052282049</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.4670265151007995</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.1030151263191345</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.3745325922864607</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>22250000000</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.01270551785764148</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.495587651900674</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.1280146394945949</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.7669556669773209</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0.1279072207289898</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.9155687300472201</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-0.6037372733121094</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.8198249889395457</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>22300000000</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.01276181852727894</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.504768248145826</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.1268211197476069</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.7627365353224382</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.126713988357117</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.9160131249700759</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-0.6010198710981858</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.8192765057453635</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>22350000000</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.01283433899048084</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.5139213692969524</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.1256497595937494</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.7585147879988927</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.1255427894775102</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.9164770036061033</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-0.5983239751395015</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.8187298298679626</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>22400000000</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.01292614195889313</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5230502875714824</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.1245023603684073</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.7542887246906609</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.1243954046216684</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.9169619618112204</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-0.59564914164252</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.8181850035672151</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>22450000000</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.01304095303939624</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.5321584440190696</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.1233812907474644</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.7500565401712609</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.1232741778753443</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.9174697060972511</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.01304252570058985</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.136225388439598</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>22500000000</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.01318333009853679</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.5412494114295181</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.1222896336080383</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.7458163809966256</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.1221821635455439</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.9180019989451953</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.01318384252961778</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.123403695786441</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>22550000000</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.01335887081048745</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.550326814538017</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.1212313662043546</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.74156644719688</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.1211233064136612</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.918560560020522</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.013358099178087</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.11061211417384</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>22600000000</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.01357446044507486</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5593941830462152</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.1202115743504376</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.7373051640017261</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.1201026569123852</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.9191468983110122</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.01357214594265921</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.097846958417593</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>22650000000</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.01383855427630615</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5684547019240211</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.1192366931950914</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.7330314597740633</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.1191266144048969</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.9197620392784291</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.01383440274181631</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.085104870649948</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>22700000000</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.01416147254746474</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5775108103276879</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.1183147501213578</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.7287451995435533</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.1182031753171135</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.9204060975149672</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.01415515910602497</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.072383215204984</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>22750000000</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.004741793081848645</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.5519009948888727</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.03456774774445905</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.5149535584868787</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.005767104925459893</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.5586602248918137</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.03850662570854398</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.5036321698015955</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>22800000000</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.01503576421627409</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5956118770201346</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.1166707123425582</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.7201433316857683</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.1165551065845348</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.9217727302429394</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.01502411808953975</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.046998177936298</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>22850000000</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.01561846088555124</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.6046510940827531</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.1159733031673746</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.7158393959512447</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.1158552467980464</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.9224837666180131</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.01560372842075805</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.034339980213736</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>22900000000</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.0163215561364961</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.6136718568314076</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.11537688178183</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.7115489174603639</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-0.1152562657524913</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.9231979568658079</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.01630363831666783</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.021715162027984</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>22950000000</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-0.01716224165207368</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.6226587057233376</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.1148935274664176</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.7072913074328918</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-0.1147705199456246</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.9238959723603599</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.01714131653069229</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.009138893617066</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>23000000000</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-0.0181542215636112</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.6315896028531276</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.1145307268752276</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.7030930734242513</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.1144059040097652</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.924551294650402</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.01813087494658949</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.9966330189866499</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>23050000000</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.01930409314560568</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.6404371452596384</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.1142874192928963</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.6989866820013763</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.114161857104106</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.9251312616861849</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.01927941041047852</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.9842249336638897</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>23100000000</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.02060817188484182</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.6491722643817471</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.1141503619519999</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.6950069302114779</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.1140256194746548</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.925600628482711</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.02058372104446314</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.9719439530736194</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>23150000000</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.0220516415261204</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.6577701759985876</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.1140926414109317</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.6911850426462184</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.11397058870568</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.9259274846719259</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.02202930116800638</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.9598153479473317</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>23200000000</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.02361155668774778</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.6662168174922045</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.1140757773415752</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.6875422175896673</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.1139582977979032</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.9260898312517994</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.02359321820650609</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.9478537841290717</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>23250000000</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.02526360212790639</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.6745131702330699</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.1140552023266379</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.6840851428635903</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.1139438756100555</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.9260802465755127</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.02525085260536997</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.9360588183222411</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>23300000000</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-0.02699078170476418</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.6826756475065888</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.1139871156503109</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.6808051343310656</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.02698468212214569</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.9244143631776225</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-0.1138829959778666</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.9259068948006381</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>23350000000</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-0.02879185980438737</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.6907324414811588</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.113834294411784</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.6776806636656166</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.02879286956799476</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.9128922881792509</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-0.1137378351367778</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.9255910502340107</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>23400000000</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-0.03068846688972255</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.6987167053277199</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.1135694994206618</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.6746817081542986</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.03069649264271937</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.9014592713442476</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-0.1134806018978482</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.9251627136781608</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>23450000000</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.03273099197473663</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.7066568266909844</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.1131764739977861</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.6717742849769164</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.03274550586787126</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.8900865995528883</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-0.1130946059014768</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.9246560043203051</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>23500000000</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.03500328481770043</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.7145621372846839</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.1126492684670973</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.6689242166484763</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.03502346347673841</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.8787645330947658</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-0.1125736027992143</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.9241053201189701</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>23550000000</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.0376233650982897</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.7224001659360324</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.1119906759525361</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.6660998599279436</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.0376482206526107</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.8675251096587832</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-0.1119202221036344</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.9235425518321686</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>23600000000</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.04072965134640145</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.7300619942374013</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.1112103132106296</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.6632738928661093</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0407581424876604</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.8564768272857454</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-0.1111440280430538</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.9229952573379773</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>23650000000</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.04443081409778265</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.7373254034597372</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.1103226303243174</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.6604243415406776</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.04446193378640623</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.8458415221358665</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-0.1102595058933073</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.9224856101920968</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>23700000000</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.04870647530581171</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.7438630892839196</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.04873931479351039</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.8359461687021768</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.1093449936299289</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.6575349930830348</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-0.1092841212113636</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.9220299716315388</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>23750000000</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.05332300373100819</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.7493589044846157</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.05335679348075578</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.8271066444989619</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.1082959410848408</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.6545952975381284</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-0.1082365520896452</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.9216389813189776</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>23800000000</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.05789198890951912</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.7536737315230397</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.05792611793041456</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.8194618581072624</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.1071937032885933</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.6515998522246754</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-0.1071351885816152</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.9213180723223277</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>23850000000</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.06204325958281089</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.7568849395204582</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.06207727619652893</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.8129342868950449</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.1060550707283519</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.6485475833401411</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-0.1059969813677954</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.921068294795937</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>23900000000</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-0.06553227083687854</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.7591853910140947</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.06556586942767098</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.8073309605185375</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.1048946504530207</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.645440763568555</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-0.1048366844023491</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.9208873080967523</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>23950000000</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.06823274699120739</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.7607795329733547</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.06826574611503435</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.8024473578945041</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.1036664816824288</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.920770397415632</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.1037245014939266</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.642284007444076</v>
       </c>
     </row>
   </sheetData>
